--- a/documentation/DatenAnalyse_Datenverlust.xlsx
+++ b/documentation/DatenAnalyse_Datenverlust.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
   <si>
     <t>durchschnitskosten pro Kopf pro Datenpanne pro Jahr</t>
   </si>
@@ -253,6 +254,30 @@
   </si>
   <si>
     <t>https://www.brighttalk.com/webcast/9165/87367</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Kosten pro Datensatz</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>abg</t>
+  </si>
+  <si>
+    <t>Kostenänderung abhänig von faktoren:</t>
   </si>
 </sst>
 </file>
@@ -290,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -298,11 +323,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -310,6 +397,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -713,11 +810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93639168"/>
-        <c:axId val="93639744"/>
+        <c:axId val="42740544"/>
+        <c:axId val="42741120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93639168"/>
+        <c:axId val="42740544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,12 +828,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93639744"/>
+        <c:crossAx val="42741120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93639744"/>
+        <c:axId val="42741120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93639168"/>
+        <c:crossAx val="42740544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -789,14 +886,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1433,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O16"/>
+  <dimension ref="B3:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,283 +1569,315 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>217</v>
       </c>
       <c r="E6" s="4">
         <f>(D6/$D$4)-1</f>
         <v>0.4370860927152318</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>12</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" ref="J6:J12" si="0">($I$4+I6)/$I$4-1</f>
         <v>7.9470198675496651E-2</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="11">
         <v>0.34</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>214</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ref="E7:E16" si="1">(D7/$D$4)-1</f>
         <v>0.41721854304635753</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>8</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>5.2980132450331174E-2</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="12">
         <v>0.28999999999999998</v>
       </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>201</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
         <v>0.33112582781456945</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>6</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>3.9735099337748325E-2</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="12">
         <v>0.09</v>
       </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>161</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>6.6225165562913801E-2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>-4</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>-2.6490066225165587E-2</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>141</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
         <v>-6.6225165562913912E-2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>-5</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>-3.3112582781456901E-2</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="12">
         <v>0.05</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>134</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
         <v>-0.11258278145695366</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>-9</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>-5.9602649006622488E-2</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="12">
         <v>0.05</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>126</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>-0.16556291390728473</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="10">
         <v>-11</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>-7.2847682119205337E-2</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="12">
         <v>0.04</v>
       </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>120</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>-0.20529801324503316</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="12">
         <v>0.04</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>119</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>-0.21192052980132448</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="12">
         <v>0.02</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>114</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>-0.24503311258278149</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="12">
         <v>0.01</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="C16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="10">
         <v>93</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
         <v>-0.38410596026490063</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="13">
         <v>0</v>
       </c>
       <c r="O16" s="4"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="14"/>
     </row>
   </sheetData>
   <sortState ref="M6:N16">
@@ -1762,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,6 +2734,17 @@
         <v>10460552</v>
       </c>
     </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C34">
         <f>I35+E34</f>
@@ -2714,4 +2854,83 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>-11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/DatenAnalyse_Datenverlust.xlsx
+++ b/documentation/DatenAnalyse_Datenverlust.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
   <si>
     <t>durchschnitskosten pro Kopf pro Datenpanne pro Jahr</t>
   </si>
@@ -277,14 +277,68 @@
     <t>abg</t>
   </si>
   <si>
-    <t>Kostenänderung abhänig von faktoren:</t>
+    <t>Testfälle</t>
+  </si>
+  <si>
+    <t>Datensätze:</t>
+  </si>
+  <si>
+    <t>Industriezweig</t>
+  </si>
+  <si>
+    <t>Einflussfaktoren</t>
+  </si>
+  <si>
+    <t>Einflussfaktoren:</t>
+  </si>
+  <si>
+    <t>Industriezweig:</t>
+  </si>
+  <si>
+    <t>User Imput</t>
+  </si>
+  <si>
+    <t>Stat Input</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>Kosten pro Datenverlust:</t>
+  </si>
+  <si>
+    <t>Aufteilung der Kosten</t>
+  </si>
+  <si>
+    <t>Thrid party, quick notofication, CISO, Strong security posture</t>
+  </si>
+  <si>
+    <t>Ergebniss</t>
+  </si>
+  <si>
+    <t>avg:</t>
+  </si>
+  <si>
+    <t>min:</t>
+  </si>
+  <si>
+    <t>max:</t>
+  </si>
+  <si>
+    <t>Kosten bei max Verlust</t>
+  </si>
+  <si>
+    <t>Aufteilung:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +356,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -407,6 +469,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -810,11 +878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42740544"/>
-        <c:axId val="42741120"/>
+        <c:axId val="90265792"/>
+        <c:axId val="90266368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42740544"/>
+        <c:axId val="90265792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,12 +896,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42741120"/>
+        <c:crossAx val="90266368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42741120"/>
+        <c:axId val="90266368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,7 +926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42740544"/>
+        <c:crossAx val="90265792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1532,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,7 +1960,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="C35" sqref="C35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,79 +2926,531 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:C17"/>
+  <dimension ref="B3:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="R6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>512</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7">
+        <f>D21+J19+J21+J23+J25</f>
+        <v>203</v>
+      </c>
+      <c r="R7" s="18">
+        <f>P7*D7</f>
+        <v>103936</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <f>D14+J19+J21+J23+J25</f>
+        <v>82</v>
+      </c>
+      <c r="R8" s="18">
+        <f>P8*D7</f>
+        <v>41984</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9">
+        <f>D15+J19+J21+J23+J25</f>
+        <v>252</v>
+      </c>
+      <c r="R9" s="18">
+        <f>P9*D7</f>
+        <v>129024</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" t="s">
+        <v>94</v>
+      </c>
+      <c r="T11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" s="18">
+        <f>$P$8*G19</f>
+        <v>27.880000000000003</v>
+      </c>
+      <c r="S12" s="18">
+        <f>$P$7*G19</f>
+        <v>69.02000000000001</v>
+      </c>
+      <c r="T12" s="18">
+        <f>$P$9*G19</f>
+        <v>85.68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="18">
+        <f t="shared" ref="R13:R22" si="0">$P$8*G20</f>
+        <v>23.779999999999998</v>
+      </c>
+      <c r="S13" s="18">
+        <f t="shared" ref="S13:S22" si="1">$P$7*G20</f>
+        <v>58.87</v>
+      </c>
+      <c r="T13" s="18">
+        <f t="shared" ref="T13:T22" si="2">$P$9*G20</f>
+        <v>73.08</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="18">
+        <f t="shared" si="0"/>
+        <v>7.38</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" si="1"/>
+        <v>18.27</v>
+      </c>
+      <c r="T14" s="18">
+        <f t="shared" si="2"/>
+        <v>22.68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="18">
+        <f t="shared" si="0"/>
+        <v>5.74</v>
+      </c>
+      <c r="S15" s="18">
+        <f t="shared" si="1"/>
+        <v>14.21</v>
+      </c>
+      <c r="T15" s="18">
+        <f t="shared" si="2"/>
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16">
+        <v>151</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="18">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="S16" s="18">
+        <f t="shared" si="1"/>
+        <v>10.15</v>
+      </c>
+      <c r="T16" s="18">
+        <f t="shared" si="2"/>
+        <v>12.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="18">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="S17" s="18">
+        <f t="shared" si="1"/>
+        <v>10.15</v>
+      </c>
+      <c r="T17" s="18">
+        <f t="shared" si="2"/>
+        <v>12.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="O18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="18">
+        <f t="shared" si="0"/>
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="S18" s="18">
+        <f t="shared" si="1"/>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="T18" s="18">
+        <f t="shared" si="2"/>
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>217</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C11">
+      <c r="J19" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="O19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="18">
+        <f t="shared" si="0"/>
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="S19" s="18">
+        <f t="shared" si="1"/>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="T19" s="18">
+        <f t="shared" si="2"/>
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>214</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C12">
+      <c r="J20" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="O20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="18">
+        <f t="shared" si="0"/>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="S20" s="18">
+        <f t="shared" si="1"/>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="T20" s="18">
+        <f t="shared" si="2"/>
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>201</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C13">
+      <c r="J21" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="O21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="18">
+        <f t="shared" si="0"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="S21" s="18">
+        <f t="shared" si="1"/>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="T21" s="18">
+        <f t="shared" si="2"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>161</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C14">
+      <c r="J22" s="14">
         <v>-4</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="O22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>141</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C15">
+      <c r="J23" s="14">
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>134</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16">
+      <c r="J24" s="14">
         <v>-9</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>126</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C17">
+      <c r="J25" s="14">
         <v>-11</v>
       </c>
     </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>120</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>119</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>114</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>93</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/DatenAnalyse_Datenverlust.xlsx
+++ b/documentation/DatenAnalyse_Datenverlust.xlsx
@@ -10,14 +10,17 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
+    <sheet name="Test 1" sheetId="4" r:id="rId4"/>
+    <sheet name="Test 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Test 3" sheetId="6" r:id="rId6"/>
+    <sheet name="Test 4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="112">
   <si>
     <t>durchschnitskosten pro Kopf pro Datenpanne pro Jahr</t>
   </si>
@@ -277,9 +280,6 @@
     <t>abg</t>
   </si>
   <si>
-    <t>Testfälle</t>
-  </si>
-  <si>
     <t>Datensätze:</t>
   </si>
   <si>
@@ -329,6 +329,33 @@
   </si>
   <si>
     <t>Aufteilung:</t>
+  </si>
+  <si>
+    <t>kleines Energieunternehmen</t>
+  </si>
+  <si>
+    <t>mittleres Technologieunternehmen</t>
+  </si>
+  <si>
+    <t>Technologie</t>
+  </si>
+  <si>
+    <t>Lost devices, consulants, icident Management plan</t>
+  </si>
+  <si>
+    <t>großes Finanzunternehmen</t>
+  </si>
+  <si>
+    <t>Finanz</t>
+  </si>
+  <si>
+    <t>Third Party, Lost or stolen device, quick notification</t>
+  </si>
+  <si>
+    <t>mini public sector</t>
+  </si>
+  <si>
+    <t>Consultants engaged, CISO appointment, incident management plan, Strong security posture</t>
   </si>
 </sst>
 </file>
@@ -451,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -471,10 +498,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -878,11 +906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90265792"/>
-        <c:axId val="90266368"/>
+        <c:axId val="81581120"/>
+        <c:axId val="81581696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90265792"/>
+        <c:axId val="81581120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,12 +924,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90266368"/>
+        <c:crossAx val="81581696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90266368"/>
+        <c:axId val="81581696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90265792"/>
+        <c:crossAx val="81581120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1960,7 +1988,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:I35"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,7 +2957,7 @@
   <dimension ref="B3:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,26 +2970,26 @@
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="R6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>512</v>
@@ -2970,64 +2998,64 @@
         <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P7">
         <f>D21+J19+J21+J23+J25</f>
         <v>203</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="17">
         <f>P7*D7</f>
         <v>103936</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P8">
-        <f>D14+J19+J21+J23+J25</f>
-        <v>82</v>
-      </c>
-      <c r="R8" s="18">
+        <f>(E14*D21)+J22+J23+J24+J25</f>
+        <v>77.490066225165577</v>
+      </c>
+      <c r="R8" s="17">
         <f>P8*D7</f>
-        <v>41984</v>
+        <v>39674.913907284776</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P9">
-        <f>D15+J19+J21+J23+J25</f>
-        <v>252</v>
-      </c>
-      <c r="R9" s="18">
+        <f>(E15*D21)+J22+J23+J24+J25</f>
+        <v>303.78145695364236</v>
+      </c>
+      <c r="R9" s="17">
         <f>P9*D7</f>
-        <v>129024</v>
+        <v>155536.10596026489</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R11" t="s">
         <v>83</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T11" t="s">
         <v>84</v>
@@ -3035,42 +3063,42 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="17">
         <f>$P$8*G19</f>
-        <v>27.880000000000003</v>
-      </c>
-      <c r="S12" s="18">
+        <v>26.346622516556298</v>
+      </c>
+      <c r="S12" s="17">
         <f>$P$7*G19</f>
         <v>69.02000000000001</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="17">
         <f>$P$9*G19</f>
-        <v>85.68</v>
+        <v>103.28569536423841</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="17">
         <f t="shared" ref="R13:R22" si="0">$P$8*G20</f>
-        <v>23.779999999999998</v>
-      </c>
-      <c r="S13" s="18">
+        <v>22.472119205298014</v>
+      </c>
+      <c r="S13" s="17">
         <f t="shared" ref="S13:S22" si="1">$P$7*G20</f>
         <v>58.87</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="17">
         <f t="shared" ref="T13:T22" si="2">$P$9*G20</f>
-        <v>73.08</v>
+        <v>88.09662251655628</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
@@ -3080,20 +3108,24 @@
       <c r="D14">
         <v>80</v>
       </c>
+      <c r="E14">
+        <f>D14/D16</f>
+        <v>0.5298013245033113</v>
+      </c>
       <c r="O14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="17">
         <f t="shared" si="0"/>
-        <v>7.38</v>
-      </c>
-      <c r="S14" s="18">
+        <v>6.974105960264902</v>
+      </c>
+      <c r="S14" s="17">
         <f t="shared" si="1"/>
         <v>18.27</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="17">
         <f t="shared" si="2"/>
-        <v>22.68</v>
+        <v>27.340331125827813</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -3103,25 +3135,29 @@
       <c r="D15">
         <v>250</v>
       </c>
+      <c r="E15">
+        <f>D15/D16</f>
+        <v>1.6556291390728477</v>
+      </c>
       <c r="O15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R15" s="17">
         <f t="shared" si="0"/>
-        <v>5.74</v>
-      </c>
-      <c r="S15" s="18">
+        <v>5.4243046357615912</v>
+      </c>
+      <c r="S15" s="17">
         <f t="shared" si="1"/>
         <v>14.21</v>
       </c>
-      <c r="T15" s="18">
+      <c r="T15" s="17">
         <f t="shared" si="2"/>
-        <v>17.64</v>
+        <v>21.264701986754968</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -3129,63 +3165,63 @@
       <c r="O16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="17">
         <f t="shared" si="0"/>
-        <v>4.1000000000000005</v>
-      </c>
-      <c r="S16" s="18">
+        <v>3.874503311258279</v>
+      </c>
+      <c r="S16" s="17">
         <f t="shared" si="1"/>
         <v>10.15</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="17">
         <f t="shared" si="2"/>
-        <v>12.600000000000001</v>
+        <v>15.18907284768212</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="O17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="17">
         <f t="shared" si="0"/>
-        <v>4.1000000000000005</v>
-      </c>
-      <c r="S17" s="18">
+        <v>3.874503311258279</v>
+      </c>
+      <c r="S17" s="17">
         <f t="shared" si="1"/>
         <v>10.15</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="17">
         <f t="shared" si="2"/>
-        <v>12.600000000000001</v>
+        <v>15.18907284768212</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="I18" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="I18" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="17"/>
+      <c r="J18" s="18"/>
       <c r="O18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="17">
         <f t="shared" si="0"/>
-        <v>3.2800000000000002</v>
-      </c>
-      <c r="S18" s="18">
+        <v>3.0996026490066231</v>
+      </c>
+      <c r="S18" s="17">
         <f t="shared" si="1"/>
         <v>8.120000000000001</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="17">
         <f t="shared" si="2"/>
-        <v>10.08</v>
+        <v>12.151258278145695</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
@@ -3210,17 +3246,17 @@
       <c r="O19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="17">
         <f t="shared" si="0"/>
-        <v>3.2800000000000002</v>
-      </c>
-      <c r="S19" s="18">
+        <v>3.0996026490066231</v>
+      </c>
+      <c r="S19" s="17">
         <f t="shared" si="1"/>
         <v>8.120000000000001</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="17">
         <f t="shared" si="2"/>
-        <v>10.08</v>
+        <v>12.151258278145695</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
@@ -3245,17 +3281,17 @@
       <c r="O20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20" s="17">
         <f t="shared" si="0"/>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="S20" s="18">
+        <v>1.5498013245033115</v>
+      </c>
+      <c r="S20" s="17">
         <f t="shared" si="1"/>
         <v>4.0600000000000005</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="17">
         <f t="shared" si="2"/>
-        <v>5.04</v>
+        <v>6.0756291390728476</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
@@ -3280,17 +3316,17 @@
       <c r="O21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="17">
         <f t="shared" si="0"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="S21" s="18">
+        <v>0.77490066225165577</v>
+      </c>
+      <c r="S21" s="17">
         <f t="shared" si="1"/>
         <v>2.0300000000000002</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21" s="17">
         <f t="shared" si="2"/>
-        <v>2.52</v>
+        <v>3.0378145695364238</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
@@ -3315,15 +3351,1637 @@
       <c r="O22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S22" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>141</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="14">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>134</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="14">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>126</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="14">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>120</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>119</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>114</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>93</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="R6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="19">
+        <v>5000000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7">
+        <f>D26+J20+J22+J24</f>
+        <v>115</v>
+      </c>
+      <c r="R7" s="17">
+        <f>P7*D7</f>
+        <v>575000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8">
+        <f>(E14*D26)+J22+J23+J24+J25</f>
+        <v>34.576158940397356</v>
+      </c>
+      <c r="R8" s="17">
+        <f>P8*D7</f>
+        <v>172880794.70198679</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <f>(E15*D26)+J22+J23+J24+J25</f>
+        <v>169.67549668874173</v>
+      </c>
+      <c r="R9" s="17">
+        <f>P9*D7</f>
+        <v>848377483.44370866</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" s="17">
+        <f>$P$8*G19</f>
+        <v>11.755894039735102</v>
+      </c>
+      <c r="S12" s="17">
+        <f>$P$7*G19</f>
+        <v>39.1</v>
+      </c>
+      <c r="T12" s="17">
+        <f>$P$9*G19</f>
+        <v>57.689668874172192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="17">
+        <f t="shared" ref="R13:R22" si="0">$P$8*G20</f>
+        <v>10.027086092715232</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" ref="S13:S22" si="1">$P$7*G20</f>
+        <v>33.349999999999994</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" ref="T13:T22" si="2">$P$9*G20</f>
+        <v>49.205894039735099</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <f>D14/D16</f>
+        <v>0.5298013245033113</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="17">
+        <f t="shared" si="0"/>
+        <v>3.1118543046357621</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="1"/>
+        <v>10.35</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="2"/>
+        <v>15.270794701986755</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <f>D15/D16</f>
+        <v>1.6556291390728477</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="17">
+        <f t="shared" si="0"/>
+        <v>2.4203311258278153</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="1"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="2"/>
+        <v>11.877284768211922</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16">
+        <v>151</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7288079470198678</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" si="2"/>
+        <v>8.4837748344370869</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7288079470198678</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="2"/>
+        <v>8.4837748344370869</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="O18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3830463576158942</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="2"/>
+        <v>6.7870198675496693</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>217</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="14">
+        <v>12</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3830463576158942</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="2"/>
+        <v>6.7870198675496693</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>214</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="14">
+        <v>8</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.69152317880794711</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="1"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="2"/>
+        <v>3.3935099337748347</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>201</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="14">
+        <v>6</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.34576158940397356</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="2"/>
+        <v>1.6967549668874173</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>161</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="14">
+        <v>-4</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>141</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="14">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>134</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="14">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>126</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="14">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>120</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>119</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>114</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>93</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="R6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2000000000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7">
+        <f>D19+J19+J20+J21</f>
+        <v>243</v>
+      </c>
+      <c r="R7" s="17">
+        <f>P7*D7</f>
+        <v>486000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8">
+        <f>(E14*D19)+J22+J23+J24+J25</f>
+        <v>85.966887417218558</v>
+      </c>
+      <c r="R8" s="17">
+        <f>P8*D7</f>
+        <v>171933774834.4371</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <f>(E15*D19)+J22+J23+J24+J25</f>
+        <v>330.27152317880797</v>
+      </c>
+      <c r="R9" s="17">
+        <f>P9*D7</f>
+        <v>660543046357.61597</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" s="17">
+        <f>$P$8*G19</f>
+        <v>29.228741721854313</v>
+      </c>
+      <c r="S12" s="17">
+        <f>$P$7*G19</f>
+        <v>82.62</v>
+      </c>
+      <c r="T12" s="17">
+        <f>$P$9*G19</f>
+        <v>112.29231788079471</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="17">
+        <f t="shared" ref="R13:R22" si="0">$P$8*G20</f>
+        <v>24.930397350993381</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" ref="S13:S22" si="1">$P$7*G20</f>
+        <v>70.47</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" ref="T13:T22" si="2">$P$9*G20</f>
+        <v>95.778741721854303</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <f>D14/D16</f>
+        <v>0.5298013245033113</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="17">
+        <f t="shared" si="0"/>
+        <v>7.7370198675496695</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="1"/>
+        <v>21.869999999999997</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="2"/>
+        <v>29.724437086092717</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <f>D15/D16</f>
+        <v>1.6556291390728477</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="17">
+        <f t="shared" si="0"/>
+        <v>6.0176821192052996</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="1"/>
+        <v>17.010000000000002</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="2"/>
+        <v>23.119006622516562</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16">
+        <v>151</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="17">
+        <f t="shared" si="0"/>
+        <v>4.2983443708609279</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="1"/>
+        <v>12.15</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" si="2"/>
+        <v>16.513576158940399</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="17">
+        <f t="shared" si="0"/>
+        <v>4.2983443708609279</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="1"/>
+        <v>12.15</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="2"/>
+        <v>16.513576158940399</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="O18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="17">
+        <f t="shared" si="0"/>
+        <v>3.4386754966887425</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="1"/>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="2"/>
+        <v>13.21086092715232</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>217</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="14">
+        <v>12</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="17">
+        <f t="shared" si="0"/>
+        <v>3.4386754966887425</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="1"/>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="2"/>
+        <v>13.21086092715232</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>214</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="14">
+        <v>8</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7193377483443713</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="1"/>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="2"/>
+        <v>6.6054304635761598</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>201</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="14">
+        <v>6</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.85966887417218563</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" si="1"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="2"/>
+        <v>3.3027152317880799</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>161</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="14">
+        <v>-4</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>141</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="14">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>134</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="14">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>126</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="14">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>120</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>119</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>114</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>93</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="R6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="19">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7">
+        <f>D29+J22+J23+J24+J25</f>
+        <v>64</v>
+      </c>
+      <c r="R7" s="17">
+        <f>P7*D7</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8">
+        <f>(E14*D29)+J22+J23+J24+J25</f>
+        <v>20.271523178807954</v>
+      </c>
+      <c r="R8" s="17">
+        <f>P8*D7</f>
+        <v>1013.5761589403977</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <f>(E15*D29)+J22+J23+J24+J25</f>
+        <v>124.97350993377484</v>
+      </c>
+      <c r="R9" s="17">
+        <f>P9*D7</f>
+        <v>6248.675496688742</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" s="17">
+        <f>$P$8*G19</f>
+        <v>6.892317880794705</v>
+      </c>
+      <c r="S12" s="17">
+        <f>$P$7*G19</f>
+        <v>21.76</v>
+      </c>
+      <c r="T12" s="17">
+        <f>$P$9*G19</f>
+        <v>42.490993377483449</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="17">
+        <f t="shared" ref="R13:R22" si="0">$P$8*G20</f>
+        <v>5.8787417218543059</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" ref="S13:S22" si="1">$P$7*G20</f>
+        <v>18.559999999999999</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" ref="T13:T22" si="2">$P$9*G20</f>
+        <v>36.242317880794701</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <f>D14/D16</f>
+        <v>0.5298013245033113</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="17">
+        <f t="shared" si="0"/>
+        <v>1.8244370860927157</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="1"/>
+        <v>5.76</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="2"/>
+        <v>11.247615894039734</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <f>D15/D16</f>
+        <v>1.6556291390728477</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="17">
+        <f t="shared" si="0"/>
+        <v>1.419006622516557</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="1"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="2"/>
+        <v>8.74814569536424</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16">
+        <v>151</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0135761589403978</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="T16" s="17">
+        <f t="shared" si="2"/>
+        <v>6.2486754966887421</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0135761589403978</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="2"/>
+        <v>6.2486754966887421</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="O18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.81086092715231817</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="2"/>
+        <v>4.9989403973509932</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>217</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="14">
+        <v>12</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="17">
+        <f t="shared" si="0"/>
+        <v>0.81086092715231817</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="2"/>
+        <v>4.9989403973509932</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>214</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="14">
+        <v>8</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.40543046357615908</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="1"/>
+        <v>1.28</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="2"/>
+        <v>2.4994701986754966</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>201</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="14">
+        <v>6</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.20271523178807954</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="2"/>
+        <v>1.2497350993377483</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>161</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="14">
+        <v>-4</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/documentation/DatenAnalyse_Datenverlust.xlsx
+++ b/documentation/DatenAnalyse_Datenverlust.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="12585" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="12585" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="113">
   <si>
     <t>durchschnitskosten pro Kopf pro Datenpanne pro Jahr</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>Consultants engaged, CISO appointment, incident management plan, Strong security posture</t>
+  </si>
+  <si>
+    <t>Anzahl der Daten</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -499,10 +502,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -906,30 +913,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81581120"/>
-        <c:axId val="81581696"/>
+        <c:axId val="106109696"/>
+        <c:axId val="106110272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81581120"/>
+        <c:axId val="106109696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81581696"/>
+        <c:crossAx val="106110272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81581696"/>
+        <c:axId val="106110272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +943,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -954,7 +959,368 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81581120"/>
+        <c:crossAx val="106109696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Test 1'!$O$19:$O$29</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Investigations &amp; forensics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lost customer business</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Audit and consulting services</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outbound contact costs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Legal services - compliance</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Customer acquisition cost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Inbound contact costs</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Legal services – defense</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Free or discounted services</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Identity protection services</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Public relations/communications</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test 1'!$S$19:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test 1'!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test 1'!$Q$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test 1'!$Q$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171408.10596026489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test 1'!$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test 1'!$Q$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test 1'!$Q$7:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test 1'!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test 1'!$Q$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test 1'!$Q$8:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55546.913907284776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="49387136"/>
+        <c:axId val="49386560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49387136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49386560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="49386560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49387136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1003,6 +1369,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2956,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,6 +3397,7 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
@@ -2980,11 +3412,19 @@
       <c r="M5" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="Q5" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
-      <c r="R6" t="s">
-        <v>101</v>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>D7</f>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -3004,6 +3444,9 @@
         <f>D21+J19+J21+J23+J25</f>
         <v>203</v>
       </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
       <c r="R7" s="17">
         <f>P7*D7</f>
         <v>103936</v>
@@ -3020,12 +3463,15 @@
         <v>99</v>
       </c>
       <c r="P8">
-        <f>(E14*D21)+J22+J23+J24+J25</f>
-        <v>77.490066225165577</v>
+        <f>(E14*D21)+J19+J21+J23+J25</f>
+        <v>108.49006622516558</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
       </c>
       <c r="R8" s="17">
         <f>P8*D7</f>
-        <v>39674.913907284776</v>
+        <v>55546.913907284776</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -3039,67 +3485,35 @@
         <v>100</v>
       </c>
       <c r="P9">
-        <f>(E15*D21)+J22+J23+J24+J25</f>
-        <v>303.78145695364236</v>
+        <f>(E15*D21)+J19+J21+J23+J25</f>
+        <v>334.78145695364236</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
       <c r="R9" s="17">
         <f>P9*D7</f>
-        <v>155536.10596026489</v>
+        <v>171408.10596026489</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="R11" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" t="s">
-        <v>93</v>
-      </c>
-      <c r="T11" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M12" t="s">
-        <v>102</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" s="17">
-        <f>$P$8*G19</f>
-        <v>26.346622516556298</v>
-      </c>
-      <c r="S12" s="17">
-        <f>$P$7*G19</f>
-        <v>69.02000000000001</v>
-      </c>
-      <c r="T12" s="17">
-        <f>$P$9*G19</f>
-        <v>103.28569536423841</v>
-      </c>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="17">
-        <f t="shared" ref="R13:R22" si="0">$P$8*G20</f>
-        <v>22.472119205298014</v>
-      </c>
-      <c r="S13" s="17">
-        <f t="shared" ref="S13:S22" si="1">$P$7*G20</f>
-        <v>58.87</v>
-      </c>
-      <c r="T13" s="17">
-        <f t="shared" ref="T13:T22" si="2">$P$9*G20</f>
-        <v>88.09662251655628</v>
-      </c>
+      <c r="R13" s="17"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
@@ -3112,21 +3526,9 @@
         <f>D14/D16</f>
         <v>0.5298013245033113</v>
       </c>
-      <c r="O14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" s="17">
-        <f t="shared" si="0"/>
-        <v>6.974105960264902</v>
-      </c>
-      <c r="S14" s="17">
-        <f t="shared" si="1"/>
-        <v>18.27</v>
-      </c>
-      <c r="T14" s="17">
-        <f t="shared" si="2"/>
-        <v>27.340331125827813</v>
-      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -3139,21 +3541,6 @@
         <f>D15/D16</f>
         <v>1.6556291390728477</v>
       </c>
-      <c r="O15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" s="17">
-        <f t="shared" si="0"/>
-        <v>5.4243046357615912</v>
-      </c>
-      <c r="S15" s="17">
-        <f t="shared" si="1"/>
-        <v>14.21</v>
-      </c>
-      <c r="T15" s="17">
-        <f t="shared" si="2"/>
-        <v>21.264701986754968</v>
-      </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -3162,66 +3549,28 @@
       <c r="D16">
         <v>151</v>
       </c>
-      <c r="O16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R16" s="17">
-        <f t="shared" si="0"/>
-        <v>3.874503311258279</v>
-      </c>
-      <c r="S16" s="17">
-        <f t="shared" si="1"/>
-        <v>10.15</v>
-      </c>
-      <c r="T16" s="17">
-        <f t="shared" si="2"/>
-        <v>15.18907284768212</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="R17" s="17">
-        <f t="shared" si="0"/>
-        <v>3.874503311258279</v>
-      </c>
-      <c r="S17" s="17">
-        <f t="shared" si="1"/>
-        <v>10.15</v>
-      </c>
-      <c r="T17" s="17">
-        <f t="shared" si="2"/>
-        <v>15.18907284768212</v>
-      </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="19"/>
+      <c r="F18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="19"/>
+      <c r="I18" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="O18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R18" s="17">
-        <f t="shared" si="0"/>
-        <v>3.0996026490066231</v>
-      </c>
-      <c r="S18" s="17">
-        <f t="shared" si="1"/>
-        <v>8.120000000000001</v>
-      </c>
-      <c r="T18" s="17">
-        <f t="shared" si="2"/>
-        <v>12.151258278145695</v>
+      <c r="J18" s="19"/>
+      <c r="R18" t="s">
+        <v>83</v>
+      </c>
+      <c r="S18" t="s">
+        <v>93</v>
+      </c>
+      <c r="T18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
@@ -3243,20 +3592,23 @@
       <c r="J19" s="14">
         <v>12</v>
       </c>
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
       <c r="O19" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="R19" s="17">
-        <f t="shared" si="0"/>
-        <v>3.0996026490066231</v>
+        <f>$P$8*G19</f>
+        <v>36.886622516556301</v>
       </c>
       <c r="S19" s="17">
-        <f t="shared" si="1"/>
-        <v>8.120000000000001</v>
+        <f>$P$7*G19</f>
+        <v>69.02000000000001</v>
       </c>
       <c r="T19" s="17">
-        <f t="shared" si="2"/>
-        <v>12.151258278145695</v>
+        <f>$P$9*G19</f>
+        <v>113.82569536423841</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
@@ -3279,19 +3631,19 @@
         <v>8</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R20" s="17">
-        <f t="shared" si="0"/>
-        <v>1.5498013245033115</v>
+        <f>$P$8*G20</f>
+        <v>31.462119205298016</v>
       </c>
       <c r="S20" s="17">
-        <f t="shared" si="1"/>
-        <v>4.0600000000000005</v>
+        <f>$P$7*G20</f>
+        <v>58.87</v>
       </c>
       <c r="T20" s="17">
-        <f t="shared" si="2"/>
-        <v>6.0756291390728476</v>
+        <f>$P$9*G20</f>
+        <v>97.086622516556275</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
@@ -3314,19 +3666,19 @@
         <v>6</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="R21" s="17">
-        <f t="shared" si="0"/>
-        <v>0.77490066225165577</v>
+        <f>$P$8*G21</f>
+        <v>9.7641059602649012</v>
       </c>
       <c r="S21" s="17">
-        <f t="shared" si="1"/>
-        <v>2.0300000000000002</v>
+        <f>$P$7*G21</f>
+        <v>18.27</v>
       </c>
       <c r="T21" s="17">
-        <f t="shared" si="2"/>
-        <v>3.0378145695364238</v>
+        <f>$P$9*G21</f>
+        <v>30.130331125827812</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
@@ -3349,19 +3701,19 @@
         <v>-4</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R22" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>$P$8*G22</f>
+        <v>7.5943046357615911</v>
       </c>
       <c r="S22" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>$P$7*G22</f>
+        <v>14.21</v>
       </c>
       <c r="T22" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>$P$9*G22</f>
+        <v>23.434701986754966</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
@@ -3383,6 +3735,21 @@
       <c r="J23" s="14">
         <v>-5</v>
       </c>
+      <c r="O23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" s="17">
+        <f>$P$8*G23</f>
+        <v>5.4245033112582792</v>
+      </c>
+      <c r="S23" s="17">
+        <f>$P$7*G23</f>
+        <v>10.15</v>
+      </c>
+      <c r="T23" s="17">
+        <f>$P$9*G23</f>
+        <v>16.73907284768212</v>
+      </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -3403,6 +3770,21 @@
       <c r="J24" s="14">
         <v>-9</v>
       </c>
+      <c r="O24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R24" s="17">
+        <f>$P$8*G24</f>
+        <v>5.4245033112582792</v>
+      </c>
+      <c r="S24" s="17">
+        <f>$P$7*G24</f>
+        <v>10.15</v>
+      </c>
+      <c r="T24" s="17">
+        <f>$P$9*G24</f>
+        <v>16.73907284768212</v>
+      </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -3423,6 +3805,21 @@
       <c r="J25" s="14">
         <v>-11</v>
       </c>
+      <c r="O25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="17">
+        <f>$P$8*G25</f>
+        <v>4.3396026490066228</v>
+      </c>
+      <c r="S25" s="17">
+        <f>$P$7*G25</f>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="T25" s="17">
+        <f>$P$9*G25</f>
+        <v>13.391258278145695</v>
+      </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -3437,6 +3834,21 @@
       <c r="G26" s="16">
         <v>0.04</v>
       </c>
+      <c r="O26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" s="17">
+        <f>$P$8*G26</f>
+        <v>4.3396026490066228</v>
+      </c>
+      <c r="S26" s="17">
+        <f>$P$7*G26</f>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="T26" s="17">
+        <f>$P$9*G26</f>
+        <v>13.391258278145695</v>
+      </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
@@ -3451,6 +3863,21 @@
       <c r="G27" s="16">
         <v>0.02</v>
       </c>
+      <c r="O27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" s="17">
+        <f>$P$8*G27</f>
+        <v>2.1698013245033114</v>
+      </c>
+      <c r="S27" s="17">
+        <f>$P$7*G27</f>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="T27" s="17">
+        <f>$P$9*G27</f>
+        <v>6.6956291390728477</v>
+      </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
@@ -3465,6 +3892,21 @@
       <c r="G28" s="16">
         <v>0.01</v>
       </c>
+      <c r="O28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" s="17">
+        <f>$P$8*G28</f>
+        <v>1.0849006622516557</v>
+      </c>
+      <c r="S28" s="17">
+        <f>$P$7*G28</f>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="T28" s="17">
+        <f>$P$9*G28</f>
+        <v>3.3478145695364239</v>
+      </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -3479,15 +3921,32 @@
       <c r="G29" s="16">
         <v>0</v>
       </c>
+      <c r="O29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R29" s="17">
+        <f>$P$8*G29</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="17">
+        <f>$P$7*G29</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="17">
+        <f>$P$9*G29</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="Q5:R5"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="I18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3496,7 +3955,7 @@
   <dimension ref="B3:T29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3532,7 +3991,7 @@
       <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>5000000</v>
       </c>
       <c r="M7" t="s">
@@ -3561,12 +4020,12 @@
         <v>99</v>
       </c>
       <c r="P8">
-        <f>(E14*D26)+J22+J23+J24+J25</f>
-        <v>34.576158940397356</v>
+        <f>(E14*D26)+J20+J22+J24</f>
+        <v>58.576158940397363</v>
       </c>
       <c r="R8" s="17">
         <f>P8*D7</f>
-        <v>172880794.70198679</v>
+        <v>292880794.70198679</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -3580,12 +4039,12 @@
         <v>100</v>
       </c>
       <c r="P9">
-        <f>(E15*D26)+J22+J23+J24+J25</f>
-        <v>169.67549668874173</v>
+        <f>(E15*D26)+J20+J22+J24</f>
+        <v>193.67549668874173</v>
       </c>
       <c r="R9" s="17">
         <f>P9*D7</f>
-        <v>848377483.44370866</v>
+        <v>968377483.44370866</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -3611,7 +4070,7 @@
       </c>
       <c r="R12" s="17">
         <f>$P$8*G19</f>
-        <v>11.755894039735102</v>
+        <v>19.915894039735104</v>
       </c>
       <c r="S12" s="17">
         <f>$P$7*G19</f>
@@ -3619,7 +4078,7 @@
       </c>
       <c r="T12" s="17">
         <f>$P$9*G19</f>
-        <v>57.689668874172192</v>
+        <v>65.849668874172195</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
@@ -3631,7 +4090,7 @@
       </c>
       <c r="R13" s="17">
         <f t="shared" ref="R13:R22" si="0">$P$8*G20</f>
-        <v>10.027086092715232</v>
+        <v>16.987086092715234</v>
       </c>
       <c r="S13" s="17">
         <f t="shared" ref="S13:S22" si="1">$P$7*G20</f>
@@ -3639,7 +4098,7 @@
       </c>
       <c r="T13" s="17">
         <f t="shared" ref="T13:T22" si="2">$P$9*G20</f>
-        <v>49.205894039735099</v>
+        <v>56.1658940397351</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
@@ -3658,7 +4117,7 @@
       </c>
       <c r="R14" s="17">
         <f t="shared" si="0"/>
-        <v>3.1118543046357621</v>
+        <v>5.2718543046357622</v>
       </c>
       <c r="S14" s="17">
         <f t="shared" si="1"/>
@@ -3666,7 +4125,7 @@
       </c>
       <c r="T14" s="17">
         <f t="shared" si="2"/>
-        <v>15.270794701986755</v>
+        <v>17.430794701986756</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -3685,7 +4144,7 @@
       </c>
       <c r="R15" s="17">
         <f t="shared" si="0"/>
-        <v>2.4203311258278153</v>
+        <v>4.1003311258278154</v>
       </c>
       <c r="S15" s="17">
         <f t="shared" si="1"/>
@@ -3693,7 +4152,7 @@
       </c>
       <c r="T15" s="17">
         <f t="shared" si="2"/>
-        <v>11.877284768211922</v>
+        <v>13.557284768211922</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -3708,7 +4167,7 @@
       </c>
       <c r="R16" s="17">
         <f t="shared" si="0"/>
-        <v>1.7288079470198678</v>
+        <v>2.9288079470198682</v>
       </c>
       <c r="S16" s="17">
         <f t="shared" si="1"/>
@@ -3716,7 +4175,7 @@
       </c>
       <c r="T16" s="17">
         <f t="shared" si="2"/>
-        <v>8.4837748344370869</v>
+        <v>9.683774834437088</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
@@ -3725,7 +4184,7 @@
       </c>
       <c r="R17" s="17">
         <f t="shared" si="0"/>
-        <v>1.7288079470198678</v>
+        <v>2.9288079470198682</v>
       </c>
       <c r="S17" s="17">
         <f t="shared" si="1"/>
@@ -3733,28 +4192,28 @@
       </c>
       <c r="T17" s="17">
         <f t="shared" si="2"/>
-        <v>8.4837748344370869</v>
+        <v>9.683774834437088</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="19"/>
+      <c r="F18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="19"/>
+      <c r="I18" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="19"/>
       <c r="O18" s="14" t="s">
         <v>51</v>
       </c>
       <c r="R18" s="17">
         <f t="shared" si="0"/>
-        <v>1.3830463576158942</v>
+        <v>2.3430463576158944</v>
       </c>
       <c r="S18" s="17">
         <f t="shared" si="1"/>
@@ -3762,7 +4221,7 @@
       </c>
       <c r="T18" s="17">
         <f t="shared" si="2"/>
-        <v>6.7870198675496693</v>
+        <v>7.7470198675496693</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
@@ -3789,7 +4248,7 @@
       </c>
       <c r="R19" s="17">
         <f t="shared" si="0"/>
-        <v>1.3830463576158942</v>
+        <v>2.3430463576158944</v>
       </c>
       <c r="S19" s="17">
         <f t="shared" si="1"/>
@@ -3797,7 +4256,7 @@
       </c>
       <c r="T19" s="17">
         <f t="shared" si="2"/>
-        <v>6.7870198675496693</v>
+        <v>7.7470198675496693</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
@@ -3824,7 +4283,7 @@
       </c>
       <c r="R20" s="17">
         <f t="shared" si="0"/>
-        <v>0.69152317880794711</v>
+        <v>1.1715231788079472</v>
       </c>
       <c r="S20" s="17">
         <f t="shared" si="1"/>
@@ -3832,7 +4291,7 @@
       </c>
       <c r="T20" s="17">
         <f t="shared" si="2"/>
-        <v>3.3935099337748347</v>
+        <v>3.8735099337748347</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
@@ -3859,7 +4318,7 @@
       </c>
       <c r="R21" s="17">
         <f t="shared" si="0"/>
-        <v>0.34576158940397356</v>
+        <v>0.5857615894039736</v>
       </c>
       <c r="S21" s="17">
         <f t="shared" si="1"/>
@@ -3867,7 +4326,7 @@
       </c>
       <c r="T21" s="17">
         <f t="shared" si="2"/>
-        <v>1.6967549668874173</v>
+        <v>1.9367549668874173</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
@@ -4037,7 +4496,7 @@
   <dimension ref="B3:T29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,7 +4532,7 @@
       <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>2000000000</v>
       </c>
       <c r="M7" t="s">
@@ -4102,12 +4561,12 @@
         <v>99</v>
       </c>
       <c r="P8">
-        <f>(E14*D19)+J22+J23+J24+J25</f>
-        <v>85.966887417218558</v>
+        <f>(E14*D19)+J19+J20+J21</f>
+        <v>140.96688741721857</v>
       </c>
       <c r="R8" s="17">
         <f>P8*D7</f>
-        <v>171933774834.4371</v>
+        <v>281933774834.43713</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -4121,12 +4580,12 @@
         <v>100</v>
       </c>
       <c r="P9">
-        <f>(E15*D19)+J22+J23+J24+J25</f>
-        <v>330.27152317880797</v>
+        <f>(E15*D19)+J19+J20+J21</f>
+        <v>385.27152317880797</v>
       </c>
       <c r="R9" s="17">
         <f>P9*D7</f>
-        <v>660543046357.61597</v>
+        <v>770543046357.61597</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -4152,7 +4611,7 @@
       </c>
       <c r="R12" s="17">
         <f>$P$8*G19</f>
-        <v>29.228741721854313</v>
+        <v>47.928741721854315</v>
       </c>
       <c r="S12" s="17">
         <f>$P$7*G19</f>
@@ -4160,7 +4619,7 @@
       </c>
       <c r="T12" s="17">
         <f>$P$9*G19</f>
-        <v>112.29231788079471</v>
+        <v>130.99231788079473</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
@@ -4172,7 +4631,7 @@
       </c>
       <c r="R13" s="17">
         <f t="shared" ref="R13:R22" si="0">$P$8*G20</f>
-        <v>24.930397350993381</v>
+        <v>40.880397350993384</v>
       </c>
       <c r="S13" s="17">
         <f t="shared" ref="S13:S22" si="1">$P$7*G20</f>
@@ -4180,7 +4639,7 @@
       </c>
       <c r="T13" s="17">
         <f t="shared" ref="T13:T22" si="2">$P$9*G20</f>
-        <v>95.778741721854303</v>
+        <v>111.72874172185431</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
@@ -4199,7 +4658,7 @@
       </c>
       <c r="R14" s="17">
         <f t="shared" si="0"/>
-        <v>7.7370198675496695</v>
+        <v>12.687019867549671</v>
       </c>
       <c r="S14" s="17">
         <f t="shared" si="1"/>
@@ -4207,7 +4666,7 @@
       </c>
       <c r="T14" s="17">
         <f t="shared" si="2"/>
-        <v>29.724437086092717</v>
+        <v>34.674437086092716</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -4226,7 +4685,7 @@
       </c>
       <c r="R15" s="17">
         <f t="shared" si="0"/>
-        <v>6.0176821192052996</v>
+        <v>9.8676821192053001</v>
       </c>
       <c r="S15" s="17">
         <f t="shared" si="1"/>
@@ -4234,7 +4693,7 @@
       </c>
       <c r="T15" s="17">
         <f t="shared" si="2"/>
-        <v>23.119006622516562</v>
+        <v>26.969006622516559</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
@@ -4249,7 +4708,7 @@
       </c>
       <c r="R16" s="17">
         <f t="shared" si="0"/>
-        <v>4.2983443708609279</v>
+        <v>7.0483443708609288</v>
       </c>
       <c r="S16" s="17">
         <f t="shared" si="1"/>
@@ -4257,7 +4716,7 @@
       </c>
       <c r="T16" s="17">
         <f t="shared" si="2"/>
-        <v>16.513576158940399</v>
+        <v>19.263576158940399</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
@@ -4266,7 +4725,7 @@
       </c>
       <c r="R17" s="17">
         <f t="shared" si="0"/>
-        <v>4.2983443708609279</v>
+        <v>7.0483443708609288</v>
       </c>
       <c r="S17" s="17">
         <f t="shared" si="1"/>
@@ -4274,28 +4733,28 @@
       </c>
       <c r="T17" s="17">
         <f t="shared" si="2"/>
-        <v>16.513576158940399</v>
+        <v>19.263576158940399</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="19"/>
+      <c r="F18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="19"/>
+      <c r="I18" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="19"/>
       <c r="O18" s="14" t="s">
         <v>51</v>
       </c>
       <c r="R18" s="17">
         <f t="shared" si="0"/>
-        <v>3.4386754966887425</v>
+        <v>5.6386754966887427</v>
       </c>
       <c r="S18" s="17">
         <f t="shared" si="1"/>
@@ -4303,7 +4762,7 @@
       </c>
       <c r="T18" s="17">
         <f t="shared" si="2"/>
-        <v>13.21086092715232</v>
+        <v>15.410860927152319</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
@@ -4330,7 +4789,7 @@
       </c>
       <c r="R19" s="17">
         <f t="shared" si="0"/>
-        <v>3.4386754966887425</v>
+        <v>5.6386754966887427</v>
       </c>
       <c r="S19" s="17">
         <f t="shared" si="1"/>
@@ -4338,7 +4797,7 @@
       </c>
       <c r="T19" s="17">
         <f t="shared" si="2"/>
-        <v>13.21086092715232</v>
+        <v>15.410860927152319</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
@@ -4365,7 +4824,7 @@
       </c>
       <c r="R20" s="17">
         <f t="shared" si="0"/>
-        <v>1.7193377483443713</v>
+        <v>2.8193377483443713</v>
       </c>
       <c r="S20" s="17">
         <f t="shared" si="1"/>
@@ -4373,7 +4832,7 @@
       </c>
       <c r="T20" s="17">
         <f t="shared" si="2"/>
-        <v>6.6054304635761598</v>
+        <v>7.7054304635761595</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
@@ -4400,7 +4859,7 @@
       </c>
       <c r="R21" s="17">
         <f t="shared" si="0"/>
-        <v>0.85966887417218563</v>
+        <v>1.4096688741721857</v>
       </c>
       <c r="S21" s="17">
         <f t="shared" si="1"/>
@@ -4408,7 +4867,7 @@
       </c>
       <c r="T21" s="17">
         <f t="shared" si="2"/>
-        <v>3.3027152317880799</v>
+        <v>3.8527152317880797</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
@@ -4577,8 +5036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4613,7 +5072,7 @@
       <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>50</v>
       </c>
       <c r="M7" t="s">
@@ -4818,18 +5277,18 @@
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="19"/>
+      <c r="F18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="19"/>
+      <c r="I18" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="19"/>
       <c r="O18" s="14" t="s">
         <v>51</v>
       </c>

--- a/documentation/DatenAnalyse_Datenverlust.xlsx
+++ b/documentation/DatenAnalyse_Datenverlust.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="116">
   <si>
     <t>Nummer</t>
   </si>
@@ -359,18 +359,28 @@
     <t>mini public sector</t>
   </si>
   <si>
+    <t>Kosten selected</t>
+  </si>
+  <si>
     <t>Consultants engaged, CISO appointment, incident management plan, Strong security posture</t>
+  </si>
+  <si>
+    <t>Ausgewählte Daten:</t>
+  </si>
+  <si>
+    <t>avgSelected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="0.00%" numFmtId="165"/>
     <numFmt formatCode="#,##0.00&quot; €&quot;" numFmtId="166"/>
     <numFmt formatCode="#,##0.00" numFmtId="167"/>
+    <numFmt formatCode="#,##0\ [$€-407];\-#,##0\ [$€-407]" numFmtId="168"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -591,10 +601,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -624,6 +630,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -699,7 +709,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1139,11 +1149,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95691926"/>
-        <c:axId val="92172274"/>
+        <c:axId val="58466156"/>
+        <c:axId val="51591148"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95691926"/>
+        <c:axId val="58466156"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92172274"/>
+        <c:crossAx val="51591148"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1186,7 +1196,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92172274"/>
+        <c:axId val="51591148"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95691926"/>
+        <c:crossAx val="58466156"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1254,7 +1264,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1461,7 +1471,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1646,11 +1656,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="50235576"/>
-        <c:axId val="55082309"/>
+        <c:axId val="99103847"/>
+        <c:axId val="94543881"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50235576"/>
+        <c:axId val="99103847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55082309"/>
+        <c:crossAx val="94543881"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1670,7 +1680,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55082309"/>
+        <c:axId val="94543881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50235576"/>
+        <c:crossAx val="99103847"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1720,15 +1730,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:colOff>347760</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>100800</xdr:colOff>
+      <xdr:colOff>127440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1736,8 +1746,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11346840" y="520200"/>
-        <a:ext cx="11140560" cy="5490360"/>
+        <a:off x="11373840" y="511200"/>
+        <a:ext cx="11140200" cy="5490000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1755,15 +1765,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>234360</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1771,8 +1781,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16725960" y="5797080"/>
-        <a:ext cx="5765760" cy="2742480"/>
+        <a:off x="16752960" y="5788080"/>
+        <a:ext cx="5765400" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1785,15 +1795,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>444960</xdr:colOff>
+      <xdr:colOff>471960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
+      <xdr:colOff>308880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1801,8 +1811,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9910080" y="5549400"/>
-        <a:ext cx="5846760" cy="2742480"/>
+        <a:off x="9937080" y="5540400"/>
+        <a:ext cx="5846400" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3385,7 +3395,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="C34" s="14" t="n">
+      <c r="C34" s="0" t="n">
         <f aca="false">I35+E34</f>
         <v>241</v>
       </c>
@@ -3395,7 +3405,7 @@
       <c r="E34" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F34" s="14" t="n">
+      <c r="F34" s="0" t="n">
         <f aca="false">I35-E34</f>
         <v>61</v>
       </c>
@@ -3418,47 +3428,47 @@
       <c r="B36" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="C36" s="14" t="n">
+      <c r="C36" s="0" t="n">
         <f aca="false">$C$35*B36</f>
         <v>1250000</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="F36" s="14" t="n">
+      <c r="F36" s="0" t="n">
         <f aca="false">$F$35*E36</f>
         <v>400000</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="I36" s="14" t="n">
+      <c r="I36" s="0" t="n">
         <f aca="false">$I$35*H36</f>
         <v>755000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="B37" s="14" t="n">
+      <c r="B37" s="0" t="n">
         <f aca="false">B36+2000</f>
         <v>7000</v>
       </c>
-      <c r="C37" s="14" t="n">
+      <c r="C37" s="0" t="n">
         <f aca="false">$C$35*B37</f>
         <v>1750000</v>
       </c>
-      <c r="E37" s="14" t="n">
+      <c r="E37" s="0" t="n">
         <f aca="false">E36+5000</f>
         <v>10000</v>
       </c>
-      <c r="F37" s="14" t="n">
+      <c r="F37" s="0" t="n">
         <f aca="false">$F$35*E37</f>
         <v>800000</v>
       </c>
-      <c r="H37" s="14" t="n">
+      <c r="H37" s="0" t="n">
         <f aca="false">H36+5000</f>
         <v>10000</v>
       </c>
-      <c r="I37" s="14" t="n">
+      <c r="I37" s="0" t="n">
         <f aca="false">$I$35*H37</f>
         <v>1510000</v>
       </c>
@@ -3467,21 +3477,21 @@
       <c r="B38" s="0" t="n">
         <v>88082</v>
       </c>
-      <c r="C38" s="14" t="n">
+      <c r="C38" s="0" t="n">
         <f aca="false">$C$35*B38</f>
         <v>22020500</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>88082</v>
       </c>
-      <c r="F38" s="14" t="n">
+      <c r="F38" s="0" t="n">
         <f aca="false">$F$35*E38</f>
         <v>7046560</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>88082</v>
       </c>
-      <c r="I38" s="14" t="n">
+      <c r="I38" s="0" t="n">
         <f aca="false">$I$35*H38</f>
         <v>13300382</v>
       </c>
@@ -3531,23 +3541,23 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="R5" s="16"/>
+      <c r="R5" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="Q6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="14" t="n">
+      <c r="R6" s="0" t="n">
         <f aca="false">D7</f>
         <v>512</v>
       </c>
@@ -3565,14 +3575,14 @@
       <c r="O7" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="14" t="n">
+      <c r="P7" s="0" t="n">
         <f aca="false">D21+J19+J21+J23+J25</f>
         <v>203</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="16" t="n">
         <f aca="false">P7*D7</f>
         <v>103936</v>
       </c>
@@ -3587,14 +3597,14 @@
       <c r="O8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="14" t="n">
+      <c r="P8" s="0" t="n">
         <f aca="false">(E14*D21)+J19+J21+J23+J25</f>
         <v>108.490066225166</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="16" t="n">
         <f aca="false">P8*D7</f>
         <v>55546.9139072848</v>
       </c>
@@ -3609,36 +3619,36 @@
       <c r="O9" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="14" t="n">
+      <c r="P9" s="0" t="n">
         <f aca="false">(E15*D21)+J19+J21+J23+J25</f>
         <v>334.781456953642</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="16" t="n">
         <f aca="false">P9*D7</f>
         <v>171408.105960265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="C13" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="R13" s="17"/>
+      <c r="R13" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="C14" s="0" t="s">
@@ -3647,13 +3657,13 @@
       <c r="D14" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="0" t="n">
         <f aca="false">D14/D16</f>
         <v>0.529801324503311</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="C15" s="0" t="s">
@@ -3662,7 +3672,7 @@
       <c r="D15" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="0" t="n">
         <f aca="false">D15/D16</f>
         <v>1.65562913907285</v>
       </c>
@@ -3676,18 +3686,18 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="18"/>
+      <c r="I18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="18"/>
       <c r="R18" s="0" t="s">
         <v>71</v>
       </c>
@@ -3705,33 +3715,33 @@
       <c r="D19" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="21" t="n">
+      <c r="G19" s="20" t="n">
         <v>0.34</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="20" t="n">
+      <c r="J19" s="19" t="n">
         <v>12</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="17" t="n">
+      <c r="R19" s="16" t="n">
         <f aca="false">$P$8*G19</f>
         <v>36.8866225165563</v>
       </c>
-      <c r="S19" s="17" t="n">
+      <c r="S19" s="16" t="n">
         <f aca="false">$P$7*G19</f>
         <v>69.02</v>
       </c>
-      <c r="T19" s="17" t="n">
+      <c r="T19" s="16" t="n">
         <f aca="false">$P$9*G19</f>
         <v>113.825695364238</v>
       </c>
@@ -3743,30 +3753,30 @@
       <c r="D20" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="21" t="n">
+      <c r="G20" s="20" t="n">
         <v>0.29</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="20" t="n">
+      <c r="J20" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R20" s="17" t="n">
+      <c r="R20" s="16" t="n">
         <f aca="false">$P$8*G20</f>
         <v>31.462119205298</v>
       </c>
-      <c r="S20" s="17" t="n">
+      <c r="S20" s="16" t="n">
         <f aca="false">$P$7*G20</f>
         <v>58.87</v>
       </c>
-      <c r="T20" s="17" t="n">
+      <c r="T20" s="16" t="n">
         <f aca="false">$P$9*G20</f>
         <v>97.0866225165563</v>
       </c>
@@ -3778,30 +3788,30 @@
       <c r="D21" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="21" t="n">
+      <c r="G21" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="20" t="n">
+      <c r="J21" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="17" t="n">
+      <c r="R21" s="16" t="n">
         <f aca="false">$P$8*G21</f>
         <v>9.7641059602649</v>
       </c>
-      <c r="S21" s="17" t="n">
+      <c r="S21" s="16" t="n">
         <f aca="false">$P$7*G21</f>
         <v>18.27</v>
       </c>
-      <c r="T21" s="17" t="n">
+      <c r="T21" s="16" t="n">
         <f aca="false">$P$9*G21</f>
         <v>30.1303311258278</v>
       </c>
@@ -3813,30 +3823,30 @@
       <c r="D22" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="20" t="n">
+      <c r="J22" s="19" t="n">
         <v>-4</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R22" s="17" t="n">
+      <c r="R22" s="16" t="n">
         <f aca="false">$P$8*G22</f>
         <v>7.59430463576159</v>
       </c>
-      <c r="S22" s="17" t="n">
+      <c r="S22" s="16" t="n">
         <f aca="false">$P$7*G22</f>
         <v>14.21</v>
       </c>
-      <c r="T22" s="17" t="n">
+      <c r="T22" s="16" t="n">
         <f aca="false">$P$9*G22</f>
         <v>23.434701986755</v>
       </c>
@@ -3848,30 +3858,30 @@
       <c r="D23" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="21" t="n">
+      <c r="G23" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="20" t="n">
+      <c r="J23" s="19" t="n">
         <v>-5</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R23" s="17" t="n">
+      <c r="R23" s="16" t="n">
         <f aca="false">$P$8*G23</f>
         <v>5.42450331125828</v>
       </c>
-      <c r="S23" s="17" t="n">
+      <c r="S23" s="16" t="n">
         <f aca="false">$P$7*G23</f>
         <v>10.15</v>
       </c>
-      <c r="T23" s="17" t="n">
+      <c r="T23" s="16" t="n">
         <f aca="false">$P$9*G23</f>
         <v>16.7390728476821</v>
       </c>
@@ -3883,30 +3893,30 @@
       <c r="D24" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="21" t="n">
+      <c r="G24" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="J24" s="19" t="n">
         <v>-9</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R24" s="17" t="n">
+      <c r="R24" s="16" t="n">
         <f aca="false">$P$8*G24</f>
         <v>5.42450331125828</v>
       </c>
-      <c r="S24" s="17" t="n">
+      <c r="S24" s="16" t="n">
         <f aca="false">$P$7*G24</f>
         <v>10.15</v>
       </c>
-      <c r="T24" s="17" t="n">
+      <c r="T24" s="16" t="n">
         <f aca="false">$P$9*G24</f>
         <v>16.7390728476821</v>
       </c>
@@ -3918,30 +3928,30 @@
       <c r="D25" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="21" t="n">
+      <c r="G25" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="20" t="n">
+      <c r="J25" s="19" t="n">
         <v>-11</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R25" s="17" t="n">
+      <c r="R25" s="16" t="n">
         <f aca="false">$P$8*G25</f>
         <v>4.33960264900662</v>
       </c>
-      <c r="S25" s="17" t="n">
+      <c r="S25" s="16" t="n">
         <f aca="false">$P$7*G25</f>
         <v>8.12</v>
       </c>
-      <c r="T25" s="17" t="n">
+      <c r="T25" s="16" t="n">
         <f aca="false">$P$9*G25</f>
         <v>13.3912582781457</v>
       </c>
@@ -3953,24 +3963,24 @@
       <c r="D26" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="21" t="n">
+      <c r="G26" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R26" s="17" t="n">
+      <c r="R26" s="16" t="n">
         <f aca="false">$P$8*G26</f>
         <v>4.33960264900662</v>
       </c>
-      <c r="S26" s="17" t="n">
+      <c r="S26" s="16" t="n">
         <f aca="false">$P$7*G26</f>
         <v>8.12</v>
       </c>
-      <c r="T26" s="17" t="n">
+      <c r="T26" s="16" t="n">
         <f aca="false">$P$9*G26</f>
         <v>13.3912582781457</v>
       </c>
@@ -3982,24 +3992,24 @@
       <c r="D27" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="21" t="n">
+      <c r="G27" s="20" t="n">
         <v>0.02</v>
       </c>
-      <c r="O27" s="20" t="s">
+      <c r="O27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="R27" s="17" t="n">
+      <c r="R27" s="16" t="n">
         <f aca="false">$P$8*G27</f>
         <v>2.16980132450331</v>
       </c>
-      <c r="S27" s="17" t="n">
+      <c r="S27" s="16" t="n">
         <f aca="false">$P$7*G27</f>
         <v>4.06</v>
       </c>
-      <c r="T27" s="17" t="n">
+      <c r="T27" s="16" t="n">
         <f aca="false">$P$9*G27</f>
         <v>6.69562913907285</v>
       </c>
@@ -4011,24 +4021,24 @@
       <c r="D28" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="21" t="n">
+      <c r="G28" s="20" t="n">
         <v>0.01</v>
       </c>
-      <c r="O28" s="20" t="s">
+      <c r="O28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="R28" s="17" t="n">
+      <c r="R28" s="16" t="n">
         <f aca="false">$P$8*G28</f>
         <v>1.08490066225166</v>
       </c>
-      <c r="S28" s="17" t="n">
+      <c r="S28" s="16" t="n">
         <f aca="false">$P$7*G28</f>
         <v>2.03</v>
       </c>
-      <c r="T28" s="17" t="n">
+      <c r="T28" s="16" t="n">
         <f aca="false">$P$9*G28</f>
         <v>3.34781456953642</v>
       </c>
@@ -4040,24 +4050,24 @@
       <c r="D29" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="21" t="n">
+      <c r="G29" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="O29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R29" s="17" t="n">
+      <c r="R29" s="16" t="n">
         <f aca="false">$P$8*G29</f>
         <v>0</v>
       </c>
-      <c r="S29" s="17" t="n">
+      <c r="S29" s="16" t="n">
         <f aca="false">$P$7*G29</f>
         <v>0</v>
       </c>
-      <c r="T29" s="17" t="n">
+      <c r="T29" s="16" t="n">
         <f aca="false">$P$9*G29</f>
         <v>0</v>
       </c>
@@ -4112,15 +4122,15 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="R6" s="0" t="s">
         <v>105</v>
       </c>
@@ -4129,7 +4139,7 @@
       <c r="C7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="21" t="n">
         <v>5000000</v>
       </c>
       <c r="M7" s="0" t="s">
@@ -4138,11 +4148,11 @@
       <c r="O7" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="14" t="n">
+      <c r="P7" s="0" t="n">
         <f aca="false">D26+J20+J22+J24</f>
         <v>115</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="16" t="n">
         <f aca="false">P7*D7</f>
         <v>575000000</v>
       </c>
@@ -4157,11 +4167,11 @@
       <c r="O8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="14" t="n">
+      <c r="P8" s="0" t="n">
         <f aca="false">(E14*D26)+J20+J22+J24</f>
         <v>58.5761589403974</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="16" t="n">
         <f aca="false">P8*D7</f>
         <v>292880794.701987</v>
       </c>
@@ -4176,17 +4186,17 @@
       <c r="O9" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="14" t="n">
+      <c r="P9" s="0" t="n">
         <f aca="false">(E15*D26)+J20+J22+J24</f>
         <v>193.675496688742</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="16" t="n">
         <f aca="false">P9*D7</f>
         <v>968377483.443709</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>97</v>
       </c>
       <c r="R11" s="0" t="s">
@@ -4203,18 +4213,18 @@
       <c r="M12" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="16" t="n">
         <f aca="false">$P$8*G19</f>
         <v>19.9158940397351</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="16" t="n">
         <f aca="false">$P$7*G19</f>
         <v>39.1</v>
       </c>
-      <c r="T12" s="17" t="n">
+      <c r="T12" s="16" t="n">
         <f aca="false">$P$9*G19</f>
         <v>65.8496688741722</v>
       </c>
@@ -4223,18 +4233,18 @@
       <c r="C13" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="16" t="n">
         <f aca="false">$P$8*G20</f>
         <v>16.9870860927152</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="16" t="n">
         <f aca="false">$P$7*G20</f>
         <v>33.35</v>
       </c>
-      <c r="T13" s="17" t="n">
+      <c r="T13" s="16" t="n">
         <f aca="false">$P$9*G20</f>
         <v>56.1658940397351</v>
       </c>
@@ -4246,22 +4256,22 @@
       <c r="D14" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="0" t="n">
         <f aca="false">D14/D16</f>
         <v>0.529801324503311</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="16" t="n">
         <f aca="false">$P$8*G21</f>
         <v>5.27185430463576</v>
       </c>
-      <c r="S14" s="17" t="n">
+      <c r="S14" s="16" t="n">
         <f aca="false">$P$7*G21</f>
         <v>10.35</v>
       </c>
-      <c r="T14" s="17" t="n">
+      <c r="T14" s="16" t="n">
         <f aca="false">$P$9*G21</f>
         <v>17.4307947019868</v>
       </c>
@@ -4273,22 +4283,22 @@
       <c r="D15" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="0" t="n">
         <f aca="false">D15/D16</f>
         <v>1.65562913907285</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="17" t="n">
+      <c r="R15" s="16" t="n">
         <f aca="false">$P$8*G22</f>
         <v>4.10033112582782</v>
       </c>
-      <c r="S15" s="17" t="n">
+      <c r="S15" s="16" t="n">
         <f aca="false">$P$7*G22</f>
         <v>8.05</v>
       </c>
-      <c r="T15" s="17" t="n">
+      <c r="T15" s="16" t="n">
         <f aca="false">$P$9*G22</f>
         <v>13.5572847682119</v>
       </c>
@@ -4300,64 +4310,64 @@
       <c r="D16" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="17" t="n">
+      <c r="R16" s="16" t="n">
         <f aca="false">$P$8*G23</f>
         <v>2.92880794701987</v>
       </c>
-      <c r="S16" s="17" t="n">
+      <c r="S16" s="16" t="n">
         <f aca="false">$P$7*G23</f>
         <v>5.75</v>
       </c>
-      <c r="T16" s="17" t="n">
+      <c r="T16" s="16" t="n">
         <f aca="false">$P$9*G23</f>
         <v>9.68377483443709</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="17" t="n">
+      <c r="R17" s="16" t="n">
         <f aca="false">$P$8*G24</f>
         <v>2.92880794701987</v>
       </c>
-      <c r="S17" s="17" t="n">
+      <c r="S17" s="16" t="n">
         <f aca="false">$P$7*G24</f>
         <v>5.75</v>
       </c>
-      <c r="T17" s="17" t="n">
+      <c r="T17" s="16" t="n">
         <f aca="false">$P$9*G24</f>
         <v>9.68377483443709</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="18"/>
+      <c r="I18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="O18" s="20" t="s">
+      <c r="J18" s="18"/>
+      <c r="O18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="17" t="n">
+      <c r="R18" s="16" t="n">
         <f aca="false">$P$8*G25</f>
         <v>2.34304635761589</v>
       </c>
-      <c r="S18" s="17" t="n">
+      <c r="S18" s="16" t="n">
         <f aca="false">$P$7*G25</f>
         <v>4.6</v>
       </c>
-      <c r="T18" s="17" t="n">
+      <c r="T18" s="16" t="n">
         <f aca="false">$P$9*G25</f>
         <v>7.74701986754967</v>
       </c>
@@ -4369,30 +4379,30 @@
       <c r="D19" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="21" t="n">
+      <c r="G19" s="20" t="n">
         <v>0.34</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="20" t="n">
+      <c r="J19" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="17" t="n">
+      <c r="R19" s="16" t="n">
         <f aca="false">$P$8*G26</f>
         <v>2.34304635761589</v>
       </c>
-      <c r="S19" s="17" t="n">
+      <c r="S19" s="16" t="n">
         <f aca="false">$P$7*G26</f>
         <v>4.6</v>
       </c>
-      <c r="T19" s="17" t="n">
+      <c r="T19" s="16" t="n">
         <f aca="false">$P$9*G26</f>
         <v>7.74701986754967</v>
       </c>
@@ -4404,30 +4414,30 @@
       <c r="D20" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="21" t="n">
+      <c r="G20" s="20" t="n">
         <v>0.29</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="20" t="n">
+      <c r="J20" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="17" t="n">
+      <c r="R20" s="16" t="n">
         <f aca="false">$P$8*G27</f>
         <v>1.17152317880795</v>
       </c>
-      <c r="S20" s="17" t="n">
+      <c r="S20" s="16" t="n">
         <f aca="false">$P$7*G27</f>
         <v>2.3</v>
       </c>
-      <c r="T20" s="17" t="n">
+      <c r="T20" s="16" t="n">
         <f aca="false">$P$9*G27</f>
         <v>3.87350993377483</v>
       </c>
@@ -4439,30 +4449,30 @@
       <c r="D21" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="21" t="n">
+      <c r="G21" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="20" t="n">
+      <c r="J21" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="17" t="n">
+      <c r="R21" s="16" t="n">
         <f aca="false">$P$8*G28</f>
         <v>0.585761589403974</v>
       </c>
-      <c r="S21" s="17" t="n">
+      <c r="S21" s="16" t="n">
         <f aca="false">$P$7*G28</f>
         <v>1.15</v>
       </c>
-      <c r="T21" s="17" t="n">
+      <c r="T21" s="16" t="n">
         <f aca="false">$P$9*G28</f>
         <v>1.93675496688742</v>
       </c>
@@ -4474,30 +4484,30 @@
       <c r="D22" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="20" t="n">
+      <c r="J22" s="19" t="n">
         <v>-4</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="17" t="n">
+      <c r="R22" s="16" t="n">
         <f aca="false">$P$8*G29</f>
         <v>0</v>
       </c>
-      <c r="S22" s="17" t="n">
+      <c r="S22" s="16" t="n">
         <f aca="false">$P$7*G29</f>
         <v>0</v>
       </c>
-      <c r="T22" s="17" t="n">
+      <c r="T22" s="16" t="n">
         <f aca="false">$P$9*G29</f>
         <v>0</v>
       </c>
@@ -4509,16 +4519,16 @@
       <c r="D23" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="21" t="n">
+      <c r="G23" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="20" t="n">
+      <c r="J23" s="19" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -4529,16 +4539,16 @@
       <c r="D24" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="21" t="n">
+      <c r="G24" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="J24" s="19" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -4549,16 +4559,16 @@
       <c r="D25" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="21" t="n">
+      <c r="G25" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="20" t="n">
+      <c r="J25" s="19" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -4569,10 +4579,10 @@
       <c r="D26" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="21" t="n">
+      <c r="G26" s="20" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4583,10 +4593,10 @@
       <c r="D27" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="21" t="n">
+      <c r="G27" s="20" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4597,10 +4607,10 @@
       <c r="D28" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="21" t="n">
+      <c r="G28" s="20" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -4611,10 +4621,10 @@
       <c r="D29" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="21" t="n">
+      <c r="G29" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4641,7 +4651,7 @@
   </sheetPr>
   <dimension ref="B3:T29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="L1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="M5" activeCellId="0" pane="topLeft" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -4666,15 +4676,15 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="R6" s="0" t="s">
         <v>105</v>
       </c>
@@ -4683,7 +4693,7 @@
       <c r="C7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="21" t="n">
         <v>2000000000</v>
       </c>
       <c r="M7" s="0" t="s">
@@ -4692,11 +4702,11 @@
       <c r="O7" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="14" t="n">
+      <c r="P7" s="0" t="n">
         <f aca="false">D19+J19+J20+J21</f>
         <v>243</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="16" t="n">
         <f aca="false">P7*D7</f>
         <v>486000000000</v>
       </c>
@@ -4711,11 +4721,11 @@
       <c r="O8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="14" t="n">
+      <c r="P8" s="0" t="n">
         <f aca="false">(E14*D19)+J19+J20+J21</f>
         <v>140.966887417219</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="16" t="n">
         <f aca="false">P8*D7</f>
         <v>281933774834.437</v>
       </c>
@@ -4730,17 +4740,17 @@
       <c r="O9" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="14" t="n">
+      <c r="P9" s="0" t="n">
         <f aca="false">(E15*D19)+J19+J20+J21</f>
         <v>385.271523178808</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="16" t="n">
         <f aca="false">P9*D7</f>
         <v>770543046357.616</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>97</v>
       </c>
       <c r="R11" s="0" t="s">
@@ -4757,18 +4767,18 @@
       <c r="M12" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="16" t="n">
         <f aca="false">$P$8*G19</f>
         <v>47.9287417218543</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="16" t="n">
         <f aca="false">$P$7*G19</f>
         <v>82.62</v>
       </c>
-      <c r="T12" s="17" t="n">
+      <c r="T12" s="16" t="n">
         <f aca="false">$P$9*G19</f>
         <v>130.992317880795</v>
       </c>
@@ -4777,18 +4787,18 @@
       <c r="C13" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="16" t="n">
         <f aca="false">$P$8*G20</f>
         <v>40.8803973509934</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="16" t="n">
         <f aca="false">$P$7*G20</f>
         <v>70.47</v>
       </c>
-      <c r="T13" s="17" t="n">
+      <c r="T13" s="16" t="n">
         <f aca="false">$P$9*G20</f>
         <v>111.728741721854</v>
       </c>
@@ -4800,22 +4810,22 @@
       <c r="D14" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="0" t="n">
         <f aca="false">D14/D16</f>
         <v>0.529801324503311</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="16" t="n">
         <f aca="false">$P$8*G21</f>
         <v>12.6870198675497</v>
       </c>
-      <c r="S14" s="17" t="n">
+      <c r="S14" s="16" t="n">
         <f aca="false">$P$7*G21</f>
         <v>21.87</v>
       </c>
-      <c r="T14" s="17" t="n">
+      <c r="T14" s="16" t="n">
         <f aca="false">$P$9*G21</f>
         <v>34.6744370860927</v>
       </c>
@@ -4827,22 +4837,22 @@
       <c r="D15" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="0" t="n">
         <f aca="false">D15/D16</f>
         <v>1.65562913907285</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="17" t="n">
+      <c r="R15" s="16" t="n">
         <f aca="false">$P$8*G22</f>
         <v>9.8676821192053</v>
       </c>
-      <c r="S15" s="17" t="n">
+      <c r="S15" s="16" t="n">
         <f aca="false">$P$7*G22</f>
         <v>17.01</v>
       </c>
-      <c r="T15" s="17" t="n">
+      <c r="T15" s="16" t="n">
         <f aca="false">$P$9*G22</f>
         <v>26.9690066225166</v>
       </c>
@@ -4854,64 +4864,64 @@
       <c r="D16" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="17" t="n">
+      <c r="R16" s="16" t="n">
         <f aca="false">$P$8*G23</f>
         <v>7.04834437086093</v>
       </c>
-      <c r="S16" s="17" t="n">
+      <c r="S16" s="16" t="n">
         <f aca="false">$P$7*G23</f>
         <v>12.15</v>
       </c>
-      <c r="T16" s="17" t="n">
+      <c r="T16" s="16" t="n">
         <f aca="false">$P$9*G23</f>
         <v>19.2635761589404</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="17" t="n">
+      <c r="R17" s="16" t="n">
         <f aca="false">$P$8*G24</f>
         <v>7.04834437086093</v>
       </c>
-      <c r="S17" s="17" t="n">
+      <c r="S17" s="16" t="n">
         <f aca="false">$P$7*G24</f>
         <v>12.15</v>
       </c>
-      <c r="T17" s="17" t="n">
+      <c r="T17" s="16" t="n">
         <f aca="false">$P$9*G24</f>
         <v>19.2635761589404</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="18"/>
+      <c r="I18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="O18" s="20" t="s">
+      <c r="J18" s="18"/>
+      <c r="O18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="17" t="n">
+      <c r="R18" s="16" t="n">
         <f aca="false">$P$8*G25</f>
         <v>5.63867549668874</v>
       </c>
-      <c r="S18" s="17" t="n">
+      <c r="S18" s="16" t="n">
         <f aca="false">$P$7*G25</f>
         <v>9.72</v>
       </c>
-      <c r="T18" s="17" t="n">
+      <c r="T18" s="16" t="n">
         <f aca="false">$P$9*G25</f>
         <v>15.4108609271523</v>
       </c>
@@ -4923,30 +4933,30 @@
       <c r="D19" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="21" t="n">
+      <c r="G19" s="20" t="n">
         <v>0.34</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="20" t="n">
+      <c r="J19" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="17" t="n">
+      <c r="R19" s="16" t="n">
         <f aca="false">$P$8*G26</f>
         <v>5.63867549668874</v>
       </c>
-      <c r="S19" s="17" t="n">
+      <c r="S19" s="16" t="n">
         <f aca="false">$P$7*G26</f>
         <v>9.72</v>
       </c>
-      <c r="T19" s="17" t="n">
+      <c r="T19" s="16" t="n">
         <f aca="false">$P$9*G26</f>
         <v>15.4108609271523</v>
       </c>
@@ -4958,30 +4968,30 @@
       <c r="D20" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="21" t="n">
+      <c r="G20" s="20" t="n">
         <v>0.29</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="20" t="n">
+      <c r="J20" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="17" t="n">
+      <c r="R20" s="16" t="n">
         <f aca="false">$P$8*G27</f>
         <v>2.81933774834437</v>
       </c>
-      <c r="S20" s="17" t="n">
+      <c r="S20" s="16" t="n">
         <f aca="false">$P$7*G27</f>
         <v>4.86</v>
       </c>
-      <c r="T20" s="17" t="n">
+      <c r="T20" s="16" t="n">
         <f aca="false">$P$9*G27</f>
         <v>7.70543046357616</v>
       </c>
@@ -4993,30 +5003,30 @@
       <c r="D21" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="21" t="n">
+      <c r="G21" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="20" t="n">
+      <c r="J21" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="17" t="n">
+      <c r="R21" s="16" t="n">
         <f aca="false">$P$8*G28</f>
         <v>1.40966887417219</v>
       </c>
-      <c r="S21" s="17" t="n">
+      <c r="S21" s="16" t="n">
         <f aca="false">$P$7*G28</f>
         <v>2.43</v>
       </c>
-      <c r="T21" s="17" t="n">
+      <c r="T21" s="16" t="n">
         <f aca="false">$P$9*G28</f>
         <v>3.85271523178808</v>
       </c>
@@ -5028,30 +5038,30 @@
       <c r="D22" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="20" t="n">
+      <c r="J22" s="19" t="n">
         <v>-4</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="17" t="n">
+      <c r="R22" s="16" t="n">
         <f aca="false">$P$8*G29</f>
         <v>0</v>
       </c>
-      <c r="S22" s="17" t="n">
+      <c r="S22" s="16" t="n">
         <f aca="false">$P$7*G29</f>
         <v>0</v>
       </c>
-      <c r="T22" s="17" t="n">
+      <c r="T22" s="16" t="n">
         <f aca="false">$P$9*G29</f>
         <v>0</v>
       </c>
@@ -5063,16 +5073,16 @@
       <c r="D23" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="21" t="n">
+      <c r="G23" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="20" t="n">
+      <c r="J23" s="19" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -5083,16 +5093,16 @@
       <c r="D24" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="21" t="n">
+      <c r="G24" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="J24" s="19" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -5103,16 +5113,16 @@
       <c r="D25" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="21" t="n">
+      <c r="G25" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="20" t="n">
+      <c r="J25" s="19" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -5123,10 +5133,10 @@
       <c r="D26" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="21" t="n">
+      <c r="G26" s="20" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -5137,10 +5147,10 @@
       <c r="D27" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="21" t="n">
+      <c r="G27" s="20" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5151,10 +5161,10 @@
       <c r="D28" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="21" t="n">
+      <c r="G28" s="20" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -5165,10 +5175,10 @@
       <c r="D29" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="21" t="n">
+      <c r="G29" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5193,10 +5203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:T29"/>
+  <dimension ref="B3:W29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M5" activeCellId="0" pane="topLeft" sqref="M5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="Q1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="X3" activeCellId="0" pane="topLeft" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5218,24 +5228,27 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="R6" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="W6" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="C7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="21" t="n">
         <v>50</v>
       </c>
       <c r="M7" s="0" t="s">
@@ -5244,16 +5257,20 @@
       <c r="O7" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="14" t="n">
+      <c r="P7" s="0" t="n">
         <f aca="false">D29+J22+J23+J24+J25</f>
         <v>64</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="16" t="n">
         <f aca="false">P7*D7</f>
         <v>3200</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="W7" s="22" t="n">
+        <f aca="false">P7*W10</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
       <c r="C8" s="0" t="s">
         <v>92</v>
       </c>
@@ -5263,36 +5280,52 @@
       <c r="O8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="14" t="n">
+      <c r="P8" s="0" t="n">
         <f aca="false">(E14*D29)+J22+J23+J24+J25</f>
         <v>20.271523178808</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="16" t="n">
         <f aca="false">P8*D7</f>
         <v>1013.5761589404</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="W8" s="22" t="n">
+        <f aca="false">P8*W10</f>
+        <v>506.7880794702</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="C9" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="14" t="n">
+      <c r="P9" s="0" t="n">
         <f aca="false">(E15*D29)+J22+J23+J24+J25</f>
         <v>124.973509933775</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="16" t="n">
         <f aca="false">P9*D7</f>
         <v>6248.67549668874</v>
       </c>
+      <c r="W9" s="22" t="n">
+        <f aca="false">P9*W10</f>
+        <v>3124.33774834437</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+      <c r="U10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>97</v>
       </c>
       <c r="R11" s="0" t="s">
@@ -5304,307 +5337,354 @@
       <c r="T11" s="0" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+      <c r="W11" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
       <c r="M12" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="16" t="n">
         <f aca="false">$P$8*G19</f>
         <v>6.89231788079471</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="16" t="n">
         <f aca="false">$P$7*G19</f>
         <v>21.76</v>
       </c>
-      <c r="T12" s="17" t="n">
+      <c r="T12" s="16" t="n">
         <f aca="false">$P$9*G19</f>
         <v>42.4909933774835</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+      <c r="W12" s="16" t="n">
+        <f aca="false">$W$10*G19</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
       <c r="C13" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="16" t="n">
         <f aca="false">$P$8*G20</f>
         <v>5.87874172185431</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="16" t="n">
         <f aca="false">$P$7*G20</f>
         <v>18.56</v>
       </c>
-      <c r="T13" s="17" t="n">
+      <c r="T13" s="16" t="n">
         <f aca="false">$P$9*G20</f>
         <v>36.2423178807947</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
+      <c r="W13" s="16" t="n">
+        <f aca="false">$W$10*G20</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
       <c r="C14" s="0" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="0" t="n">
         <f aca="false">D14/D16</f>
         <v>0.529801324503311</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="16" t="n">
         <f aca="false">$P$8*G21</f>
         <v>1.82443708609272</v>
       </c>
-      <c r="S14" s="17" t="n">
+      <c r="S14" s="16" t="n">
         <f aca="false">$P$7*G21</f>
         <v>5.76</v>
       </c>
-      <c r="T14" s="17" t="n">
+      <c r="T14" s="16" t="n">
         <f aca="false">$P$9*G21</f>
         <v>11.2476158940397</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
+      <c r="W14" s="16" t="n">
+        <f aca="false">$W$10*G21</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
       <c r="C15" s="0" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="0" t="n">
         <f aca="false">D15/D16</f>
         <v>1.65562913907285</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="17" t="n">
+      <c r="R15" s="16" t="n">
         <f aca="false">$P$8*G22</f>
         <v>1.41900662251656</v>
       </c>
-      <c r="S15" s="17" t="n">
+      <c r="S15" s="16" t="n">
         <f aca="false">$P$7*G22</f>
         <v>4.48</v>
       </c>
-      <c r="T15" s="17" t="n">
+      <c r="T15" s="16" t="n">
         <f aca="false">$P$9*G22</f>
         <v>8.74814569536424</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+      <c r="W15" s="16" t="n">
+        <f aca="false">$W$10*G22</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
       <c r="C16" s="0" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="17" t="n">
+      <c r="R16" s="16" t="n">
         <f aca="false">$P$8*G23</f>
         <v>1.0135761589404</v>
       </c>
-      <c r="S16" s="17" t="n">
+      <c r="S16" s="16" t="n">
         <f aca="false">$P$7*G23</f>
         <v>3.2</v>
       </c>
-      <c r="T16" s="17" t="n">
+      <c r="T16" s="16" t="n">
         <f aca="false">$P$9*G23</f>
         <v>6.24867549668874</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="O17" s="20" t="s">
+      <c r="W16" s="16" t="n">
+        <f aca="false">$W$10*G23</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+      <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="17" t="n">
+      <c r="R17" s="16" t="n">
         <f aca="false">$P$8*G24</f>
         <v>1.0135761589404</v>
       </c>
-      <c r="S17" s="17" t="n">
+      <c r="S17" s="16" t="n">
         <f aca="false">$P$7*G24</f>
         <v>3.2</v>
       </c>
-      <c r="T17" s="17" t="n">
+      <c r="T17" s="16" t="n">
         <f aca="false">$P$9*G24</f>
         <v>6.24867549668874</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="C18" s="19" t="s">
+      <c r="W17" s="16" t="n">
+        <f aca="false">$W$10*G24</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
+      <c r="C18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="18"/>
+      <c r="I18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="O18" s="20" t="s">
+      <c r="J18" s="18"/>
+      <c r="O18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="17" t="n">
+      <c r="R18" s="16" t="n">
         <f aca="false">$P$8*G25</f>
         <v>0.810860927152318</v>
       </c>
-      <c r="S18" s="17" t="n">
+      <c r="S18" s="16" t="n">
         <f aca="false">$P$7*G25</f>
         <v>2.56</v>
       </c>
-      <c r="T18" s="17" t="n">
+      <c r="T18" s="16" t="n">
         <f aca="false">$P$9*G25</f>
         <v>4.99894039735099</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+      <c r="W18" s="16" t="n">
+        <f aca="false">$W$10*G25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
       <c r="C19" s="0" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="21" t="n">
+      <c r="G19" s="20" t="n">
         <v>0.34</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="20" t="n">
+      <c r="J19" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="17" t="n">
+      <c r="R19" s="16" t="n">
         <f aca="false">$P$8*G26</f>
         <v>0.810860927152318</v>
       </c>
-      <c r="S19" s="17" t="n">
+      <c r="S19" s="16" t="n">
         <f aca="false">$P$7*G26</f>
         <v>2.56</v>
       </c>
-      <c r="T19" s="17" t="n">
+      <c r="T19" s="16" t="n">
         <f aca="false">$P$9*G26</f>
         <v>4.99894039735099</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="W19" s="16" t="n">
+        <f aca="false">$W$10*G26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
       <c r="C20" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="21" t="n">
+      <c r="G20" s="20" t="n">
         <v>0.29</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="20" t="n">
+      <c r="J20" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="17" t="n">
+      <c r="R20" s="16" t="n">
         <f aca="false">$P$8*G27</f>
         <v>0.405430463576159</v>
       </c>
-      <c r="S20" s="17" t="n">
+      <c r="S20" s="16" t="n">
         <f aca="false">$P$7*G27</f>
         <v>1.28</v>
       </c>
-      <c r="T20" s="17" t="n">
+      <c r="T20" s="16" t="n">
         <f aca="false">$P$9*G27</f>
         <v>2.4994701986755</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="W20" s="16" t="n">
+        <f aca="false">$W$10*G27</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
       <c r="C21" s="0" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="21" t="n">
+      <c r="G21" s="20" t="n">
         <v>0.09</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="20" t="n">
+      <c r="J21" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="17" t="n">
+      <c r="R21" s="16" t="n">
         <f aca="false">$P$8*G28</f>
         <v>0.202715231788079</v>
       </c>
-      <c r="S21" s="17" t="n">
+      <c r="S21" s="16" t="n">
         <f aca="false">$P$7*G28</f>
         <v>0.64</v>
       </c>
-      <c r="T21" s="17" t="n">
+      <c r="T21" s="16" t="n">
         <f aca="false">$P$9*G28</f>
         <v>1.24973509933775</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="W21" s="16" t="n">
+        <f aca="false">$W$10*G28</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
       <c r="C22" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="20" t="n">
+      <c r="J22" s="19" t="n">
         <v>-4</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="17" t="n">
+      <c r="R22" s="16" t="n">
         <f aca="false">$P$8*G29</f>
         <v>0</v>
       </c>
-      <c r="S22" s="17" t="n">
+      <c r="S22" s="16" t="n">
         <f aca="false">$P$7*G29</f>
         <v>0</v>
       </c>
-      <c r="T22" s="17" t="n">
+      <c r="T22" s="16" t="n">
         <f aca="false">$P$9*G29</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="16" t="n">
+        <f aca="false">$W$10*G29</f>
         <v>0</v>
       </c>
     </row>
@@ -5615,16 +5695,16 @@
       <c r="D23" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="21" t="n">
+      <c r="G23" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="20" t="n">
+      <c r="J23" s="19" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -5635,16 +5715,16 @@
       <c r="D24" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="21" t="n">
+      <c r="G24" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="J24" s="19" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -5655,16 +5735,16 @@
       <c r="D25" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="21" t="n">
+      <c r="G25" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="20" t="n">
+      <c r="J25" s="19" t="n">
         <v>-11</v>
       </c>
     </row>
@@ -5675,10 +5755,10 @@
       <c r="D26" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="21" t="n">
+      <c r="G26" s="20" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -5689,10 +5769,10 @@
       <c r="D27" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="21" t="n">
+      <c r="G27" s="20" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5703,10 +5783,10 @@
       <c r="D28" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="21" t="n">
+      <c r="G28" s="20" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -5717,10 +5797,10 @@
       <c r="D29" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="21" t="n">
+      <c r="G29" s="20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/documentation/DatenAnalyse_Datenverlust.xlsx
+++ b/documentation/DatenAnalyse_Datenverlust.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="484" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="221" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -380,7 +380,7 @@
     <numFmt formatCode="0.00%" numFmtId="165"/>
     <numFmt formatCode="#,##0.00&quot; €&quot;" numFmtId="166"/>
     <numFmt formatCode="#,##0.00" numFmtId="167"/>
-    <numFmt formatCode="#,##0\ [$€-407];\-#,##0\ [$€-407]" numFmtId="168"/>
+    <numFmt formatCode="#,##0.00\ [$€-407];\-#,##0.00\ [$€-407]" numFmtId="168"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1149,11 +1149,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="58466156"/>
-        <c:axId val="51591148"/>
+        <c:axId val="92684410"/>
+        <c:axId val="62621661"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58466156"/>
+        <c:axId val="92684410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51591148"/>
+        <c:crossAx val="62621661"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1196,7 +1196,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51591148"/>
+        <c:axId val="62621661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58466156"/>
+        <c:crossAx val="92684410"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1656,11 +1656,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="99103847"/>
-        <c:axId val="94543881"/>
+        <c:axId val="13762319"/>
+        <c:axId val="41013383"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99103847"/>
+        <c:axId val="13762319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94543881"/>
+        <c:crossAx val="41013383"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1680,7 +1680,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94543881"/>
+        <c:axId val="41013383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99103847"/>
+        <c:crossAx val="13762319"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1730,15 +1730,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>347760</xdr:colOff>
+      <xdr:colOff>374760</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1746,8 +1746,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11373840" y="511200"/>
-        <a:ext cx="11140200" cy="5490000"/>
+        <a:off x="11400840" y="502200"/>
+        <a:ext cx="11139840" cy="5489640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1765,15 +1765,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>261000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1781,8 +1781,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16752960" y="5788080"/>
-        <a:ext cx="5765400" cy="2742120"/>
+        <a:off x="16779960" y="5779080"/>
+        <a:ext cx="5765040" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1795,15 +1795,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>471960</xdr:colOff>
+      <xdr:colOff>498960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>308880</xdr:colOff>
+      <xdr:colOff>335520</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1811,8 +1811,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9937080" y="5540400"/>
-        <a:ext cx="5846400" cy="2742120"/>
+        <a:off x="9964080" y="5531400"/>
+        <a:ext cx="5846040" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4652,7 +4652,7 @@
   <dimension ref="B3:T29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="L1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M5" activeCellId="0" pane="topLeft" sqref="M5"/>
+      <selection activeCell="S25" activeCellId="0" pane="topLeft" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5205,8 +5205,8 @@
   </sheetPr>
   <dimension ref="B3:W29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="Q1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="X3" activeCellId="0" pane="topLeft" sqref="X3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="O1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="U26" activeCellId="0" pane="topLeft" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5360,9 +5360,11 @@
         <f aca="false">$P$9*G19</f>
         <v>42.4909933774835</v>
       </c>
-      <c r="W12" s="16" t="n">
-        <f aca="false">$W$10*G19</f>
-        <v>8.5</v>
+      <c r="W12" s="16" t="inlineStr">
+        <f aca="false">$W$7*G19</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
@@ -5384,9 +5386,11 @@
         <f aca="false">$P$9*G20</f>
         <v>36.2423178807947</v>
       </c>
-      <c r="W13" s="16" t="n">
-        <f aca="false">$W$10*G20</f>
-        <v>7.25</v>
+      <c r="W13" s="16" t="inlineStr">
+        <f aca="false">$W$7*G20</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
@@ -5415,9 +5419,11 @@
         <f aca="false">$P$9*G21</f>
         <v>11.2476158940397</v>
       </c>
-      <c r="W14" s="16" t="n">
-        <f aca="false">$W$10*G21</f>
-        <v>2.25</v>
+      <c r="W14" s="16" t="inlineStr">
+        <f aca="false">$W$7*G21</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
@@ -5446,9 +5452,11 @@
         <f aca="false">$P$9*G22</f>
         <v>8.74814569536424</v>
       </c>
-      <c r="W15" s="16" t="n">
-        <f aca="false">$W$10*G22</f>
-        <v>1.75</v>
+      <c r="W15" s="16" t="inlineStr">
+        <f aca="false">$W$7*G22</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
@@ -5473,9 +5481,11 @@
         <f aca="false">$P$9*G23</f>
         <v>6.24867549668874</v>
       </c>
-      <c r="W16" s="16" t="n">
-        <f aca="false">$W$10*G23</f>
-        <v>1.25</v>
+      <c r="W16" s="16" t="inlineStr">
+        <f aca="false">$W$7*G23</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
@@ -5494,9 +5504,11 @@
         <f aca="false">$P$9*G24</f>
         <v>6.24867549668874</v>
       </c>
-      <c r="W17" s="16" t="n">
-        <f aca="false">$W$10*G24</f>
-        <v>1.25</v>
+      <c r="W17" s="16" t="inlineStr">
+        <f aca="false">$W$7*G24</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
@@ -5527,9 +5539,11 @@
         <f aca="false">$P$9*G25</f>
         <v>4.99894039735099</v>
       </c>
-      <c r="W18" s="16" t="n">
-        <f aca="false">$W$10*G25</f>
-        <v>1</v>
+      <c r="W18" s="16" t="inlineStr">
+        <f aca="false">$W$7*G25</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
@@ -5566,9 +5580,11 @@
         <f aca="false">$P$9*G26</f>
         <v>4.99894039735099</v>
       </c>
-      <c r="W19" s="16" t="n">
-        <f aca="false">$W$10*G26</f>
-        <v>1</v>
+      <c r="W19" s="16" t="inlineStr">
+        <f aca="false">$W$7*G26</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
@@ -5605,9 +5621,11 @@
         <f aca="false">$P$9*G27</f>
         <v>2.4994701986755</v>
       </c>
-      <c r="W20" s="16" t="n">
-        <f aca="false">$W$10*G27</f>
-        <v>0.5</v>
+      <c r="W20" s="16" t="inlineStr">
+        <f aca="false">$W$7*G27</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
@@ -5644,9 +5662,11 @@
         <f aca="false">$P$9*G28</f>
         <v>1.24973509933775</v>
       </c>
-      <c r="W21" s="16" t="n">
-        <f aca="false">$W$10*G28</f>
-        <v>0.25</v>
+      <c r="W21" s="16" t="inlineStr">
+        <f aca="false">$W$7*G28</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
@@ -5683,9 +5703,11 @@
         <f aca="false">$P$9*G29</f>
         <v>0</v>
       </c>
-      <c r="W22" s="16" t="n">
-        <f aca="false">$W$10*G29</f>
-        <v>0</v>
+      <c r="W22" s="16" t="inlineStr">
+        <f aca="false">$W$7*G29</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">

--- a/documentation/DatenAnalyse_Datenverlust.xlsx
+++ b/documentation/DatenAnalyse_Datenverlust.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="221" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="221" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Tabelle3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Test 1" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Test 2" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Test 3" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Test 4" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Tabelle1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test 1" sheetId="4" r:id="rId4"/>
+    <sheet name="Test 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Test 3" sheetId="6" r:id="rId6"/>
+    <sheet name="Test 4" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -374,70 +376,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.00%" numFmtId="165"/>
-    <numFmt formatCode="#,##0.00&quot; €&quot;" numFmtId="166"/>
-    <numFmt formatCode="#,##0.00" numFmtId="167"/>
-    <numFmt formatCode="#,##0.00\ [$€-407];\-#,##0.00\ [$€-407]" numFmtId="168"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];\-#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
+      <b/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FFA6A6A6"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="true"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -449,14 +421,14 @@
     </fill>
   </fills>
   <borders count="7">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thick">
         <color rgb="FFFF0000"/>
       </left>
@@ -467,7 +439,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FFFF0000"/>
@@ -478,7 +450,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thick">
         <color rgb="FFFF0000"/>
       </left>
@@ -487,7 +459,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FFFF0000"/>
@@ -496,7 +468,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thick">
         <color rgb="FFFF0000"/>
       </left>
@@ -507,7 +479,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FFFF0000"/>
@@ -519,133 +491,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -704,40 +588,78 @@
       <rgbColor rgb="FFBE4B48"/>
       <rgbColor rgb="FF7D5FA0"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Kostenverteilung bei</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Datenpannen</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Obere Grenze"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Obere Grenze</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Obere Grenze</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="be4b48"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="be4b48"/>
+                <a:srgbClr val="BE4B48"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -745,10 +667,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:smooth val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle3!$B$36:$B$38</c:f>
+              <c:f>[1]Kostenanalyse!$B$36:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -766,7 +687,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle3!$C$36:$C$38</c:f>
+              <c:f>[1]Kostenanalyse!$C$36:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -782,28 +703,18 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Trend"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Trend</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Trend</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7d5fa0"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="7d5fa0"/>
+                <a:srgbClr val="7D5FA0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -811,10 +722,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:smooth val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle3!$H$36:$H$38</c:f>
+              <c:f>[1]Kostenanalyse!$H$36:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -832,7 +742,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle3!$I$36:$I$38</c:f>
+              <c:f>[1]Kostenanalyse!$I$36:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -848,28 +758,18 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Untere Grenze"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Untere Grenze</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Untere Grenze</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="98b855"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="98b855"/>
+                <a:srgbClr val="98B855"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -877,10 +777,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:smooth val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle3!$E$36:$E$38</c:f>
+              <c:f>[1]Kostenanalyse!$E$36:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -898,7 +797,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle3!$F$36:$F$38</c:f>
+              <c:f>[1]Kostenanalyse!$F$36:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -914,28 +813,18 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Messwerte"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Messwerte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Messwerte</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -943,10 +832,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:smooth val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle3!$C$2:$C$32</c:f>
+              <c:f>[1]Kostenanalyse!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1048,7 +936,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle3!$H$2:$H$32</c:f>
+              <c:f>[1]Kostenanalyse!$H$2:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1148,17 +1036,27 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="92684410"/>
-        <c:axId val="62621661"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="87945728"/>
+        <c:axId val="89244800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92684410"/>
+        <c:axId val="87945728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:tx>
             <c:rich>
               <a:bodyPr/>
@@ -1168,61 +1066,43 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000">
+                  <a:rPr lang="de-DE" sz="1000" b="1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>Axis Title</a:t>
+                  <a:t>Anzahl</a:t>
                 </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62621661"/>
-        <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="62621661"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000">
+                  <a:rPr lang="de-DE" sz="1000" b="1" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>Axis Title</a:t>
+                  <a:t> der Datensätze</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89244800"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89244800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1234,40 +1114,126 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Gesamtkosten</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t> bei einer Datenpoanne</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92684410"/>
+        <c:crossAx val="87945728"/>
         <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:spPr/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85353913438668949"/>
+          <c:y val="0.25350090159007704"/>
+          <c:w val="0.13727504071538529"/>
+          <c:h val="0.16731544724332004"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:spPr/>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Kostenaufteilung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23218182127384288"/>
+          <c:y val="2.6814604458191914E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1277,36 +1243,39 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
+              <a:srgbClr val="4F81BD"/>
             </a:solidFill>
           </c:spPr>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4672a8"/>
+                <a:srgbClr val="4672A8"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ab4744"/>
+                <a:srgbClr val="AB4744"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="8aa64f"/>
+                <a:srgbClr val="8AA64F"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="725990"/>
@@ -1315,63 +1284,70 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4299b0"/>
+                <a:srgbClr val="4299B0"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="dc853e"/>
+                <a:srgbClr val="DC853E"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="93a9ce"/>
+                <a:srgbClr val="93A9CE"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="d09493"/>
+                <a:srgbClr val="D09493"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="b8cd97"/>
+                <a:srgbClr val="B8CD97"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a99bbd"/>
+                <a:srgbClr val="A99BBD"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92c3d5"/>
+                <a:srgbClr val="92C3D5"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Test 1'!$O$19:$O$29</c:f>
+              <c:f>'[1]Test 1'!$O$19:$O$29</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1412,12 +1388,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test 1'!$S$19:$S$29</c:f>
+              <c:f>'[1]Test 1'!$S$19:$S$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00" €"</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>69.02</c:v>
+                  <c:v>69.02000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>58.87</c:v>
@@ -1435,16 +1411,16 @@
                   <c:v>10.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.12</c:v>
+                  <c:v>8.120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.12</c:v>
+                  <c:v>8.120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.06</c:v>
+                  <c:v>4.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.03</c:v>
+                  <c:v>2.0300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1453,38 +1429,85 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:spPr/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.57041515923589381"/>
+          <c:y val="3.0750580191326777E-2"/>
+          <c:w val="0.33791062986829223"/>
+          <c:h val="0.94690399089795185"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:spPr/>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="7.8731256199311511E-2"/>
+          <c:w val="0.93566073819746443"/>
+          <c:h val="0.89811249197736154"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test 1'!$O$9</c:f>
+              <c:f>'[1]Test 1'!$O$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1494,12 +1517,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="98b855"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="98b855"/>
+                <a:srgbClr val="98B855"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1509,7 +1529,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Test 1'!$Q$6:$R$6</c:f>
+              <c:f>'[1]Test 1'!$Q$6:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1524,26 +1544,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Test 1'!$Q$9:$R$9</c:f>
+              <c:f>'[1]Test 1'!$Q$9:$R$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00" €"</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171408.105960265</c:v>
+                  <c:v>171408.10596026489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test 1'!$O$7</c:f>
+              <c:f>'[1]Test 1'!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1553,12 +1574,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1568,7 +1586,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Test 1'!$Q$6:$R$6</c:f>
+              <c:f>'[1]Test 1'!$Q$6:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1583,11 +1601,11 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Test 1'!$Q$7:$R$7</c:f>
+              <c:f>'[1]Test 1'!$Q$7:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00" €"</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1596,13 +1614,14 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test 1'!$O$8</c:f>
+              <c:f>'[1]Test 1'!$O$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1612,12 +1631,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="be4b48"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="be4b48"/>
+                <a:srgbClr val="BE4B48"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1627,7 +1643,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Test 1'!$Q$6:$R$6</c:f>
+              <c:f>'[1]Test 1'!$Q$6:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1642,48 +1658,53 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Test 1'!$Q$8:$R$8</c:f>
+              <c:f>'[1]Test 1'!$Q$8:$R$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00" €"</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55546.9139072848</c:v>
+                  <c:v>55546.913907284776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="13762319"/>
-        <c:axId val="41013383"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106510528"/>
+        <c:axId val="171463744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13762319"/>
+        <c:axId val="106510528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41013383"/>
+        <c:crossAx val="171463744"/>
         <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41013383"/>
+        <c:axId val="171463744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1695,59 +1716,62 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13762319"/>
+        <c:crossAx val="106510528"/>
         <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:spPr/>
+      <c:layout/>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:spPr/>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>374760</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:colOff>18165</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165825</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11400840" y="502200"/>
-        <a:ext cx="11139840" cy="5489640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1761,28 +1785,30 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307514</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>66765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:colOff>278940</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>51000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Diagramm 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16779960" y="5779080"/>
-        <a:ext cx="5765040" cy="2741760"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1794,25 +1820,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>498960</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>335520</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1770855</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>37140</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 7"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9964080" y="5531400"/>
-        <a:ext cx="5846040" cy="2741760"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1825,2250 +1853,2966 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+      <sheetName val="Diagrammübersicht"/>
+      <sheetName val="Kostenanalyse"/>
+      <sheetName val="Test 1"/>
+      <sheetName val="Test 2"/>
+      <sheetName val="Test 3"/>
+      <sheetName val="Test 4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="C2">
+            <v>5052</v>
+          </cell>
+          <cell r="H2">
+            <v>565920</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>5254</v>
+          </cell>
+          <cell r="H3">
+            <v>258803</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>5952</v>
+          </cell>
+          <cell r="H4">
+            <v>508919</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>8013</v>
+          </cell>
+          <cell r="H5">
+            <v>1890777</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>8544</v>
+          </cell>
+          <cell r="H6">
+            <v>737801</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>8546</v>
+          </cell>
+          <cell r="H7">
+            <v>1107218</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>9042</v>
+          </cell>
+          <cell r="H8">
+            <v>1770515</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>11587</v>
+          </cell>
+          <cell r="H9">
+            <v>2849640</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>13553</v>
+          </cell>
+          <cell r="H10">
+            <v>1510478</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>14362</v>
+          </cell>
+          <cell r="H11">
+            <v>2666093</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>14862</v>
+          </cell>
+          <cell r="H12">
+            <v>962887</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>15030</v>
+          </cell>
+          <cell r="H13">
+            <v>2039864</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>16335</v>
+          </cell>
+          <cell r="H14">
+            <v>1643818</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>19739</v>
+          </cell>
+          <cell r="H15">
+            <v>2791777</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>19975</v>
+          </cell>
+          <cell r="H16">
+            <v>2544671</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>20301</v>
+          </cell>
+          <cell r="H17">
+            <v>1586743</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>20428</v>
+          </cell>
+          <cell r="H18">
+            <v>4708647</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>22180</v>
+          </cell>
+          <cell r="H19">
+            <v>5485214</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>24330</v>
+          </cell>
+          <cell r="H20">
+            <v>1986576</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>25745</v>
+          </cell>
+          <cell r="H21">
+            <v>5893286</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>27178</v>
+          </cell>
+          <cell r="H22">
+            <v>8125367</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>28186</v>
+          </cell>
+          <cell r="H23">
+            <v>6692787</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>28272</v>
+          </cell>
+          <cell r="H24">
+            <v>2481441</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>28710</v>
+          </cell>
+          <cell r="H25">
+            <v>3333971</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>34000</v>
+          </cell>
+          <cell r="H26">
+            <v>6829385</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>34810</v>
+          </cell>
+          <cell r="H27">
+            <v>6741978</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>34960</v>
+          </cell>
+          <cell r="H28">
+            <v>8673633</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>37775</v>
+          </cell>
+          <cell r="H29">
+            <v>4300445</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>57843</v>
+          </cell>
+          <cell r="H30">
+            <v>3810305</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>64030</v>
+          </cell>
+          <cell r="H31">
+            <v>8684105</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>88082</v>
+          </cell>
+          <cell r="H32">
+            <v>10460552</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>5000</v>
+          </cell>
+          <cell r="C36">
+            <v>1250000</v>
+          </cell>
+          <cell r="E36">
+            <v>5000</v>
+          </cell>
+          <cell r="F36">
+            <v>400000</v>
+          </cell>
+          <cell r="H36">
+            <v>5000</v>
+          </cell>
+          <cell r="I36">
+            <v>755000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>7000</v>
+          </cell>
+          <cell r="C37">
+            <v>1750000</v>
+          </cell>
+          <cell r="E37">
+            <v>10000</v>
+          </cell>
+          <cell r="F37">
+            <v>800000</v>
+          </cell>
+          <cell r="H37">
+            <v>10000</v>
+          </cell>
+          <cell r="I37">
+            <v>1510000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>88082</v>
+          </cell>
+          <cell r="C38">
+            <v>22020500</v>
+          </cell>
+          <cell r="E38">
+            <v>88082</v>
+          </cell>
+          <cell r="F38">
+            <v>7046560</v>
+          </cell>
+          <cell r="H38">
+            <v>88082</v>
+          </cell>
+          <cell r="I38">
+            <v>13300382</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="6">
+          <cell r="Q6">
+            <v>0</v>
+          </cell>
+          <cell r="R6">
+            <v>512</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="O7" t="str">
+            <v>avg:</v>
+          </cell>
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+          <cell r="R7">
+            <v>103936</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="O8" t="str">
+            <v>min:</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+          <cell r="R8">
+            <v>55546.913907284776</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="O9" t="str">
+            <v>max:</v>
+          </cell>
+          <cell r="Q9">
+            <v>0</v>
+          </cell>
+          <cell r="R9">
+            <v>171408.10596026489</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="O19" t="str">
+            <v>Investigations &amp; forensics</v>
+          </cell>
+          <cell r="S19">
+            <v>69.02000000000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="O20" t="str">
+            <v>Lost customer business</v>
+          </cell>
+          <cell r="S20">
+            <v>58.87</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="O21" t="str">
+            <v>Audit and consulting services</v>
+          </cell>
+          <cell r="S21">
+            <v>18.27</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="O22" t="str">
+            <v>Outbound contact costs</v>
+          </cell>
+          <cell r="S22">
+            <v>14.21</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="O23" t="str">
+            <v>Legal services - compliance</v>
+          </cell>
+          <cell r="S23">
+            <v>10.15</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="O24" t="str">
+            <v>Customer acquisition cost</v>
+          </cell>
+          <cell r="S24">
+            <v>10.15</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="O25" t="str">
+            <v>Inbound contact costs</v>
+          </cell>
+          <cell r="S25">
+            <v>8.120000000000001</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="O26" t="str">
+            <v>Legal services – defense</v>
+          </cell>
+          <cell r="S26">
+            <v>8.120000000000001</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="O27" t="str">
+            <v>Free or discounted services</v>
+          </cell>
+          <cell r="S27">
+            <v>4.0600000000000005</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="O28" t="str">
+            <v>Identity protection services</v>
+          </cell>
+          <cell r="S28">
+            <v>2.0300000000000002</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="O29" t="str">
+            <v>Public relations/communications</v>
+          </cell>
+          <cell r="S29">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B26" activeCellId="0" pane="topLeft" sqref="B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="71.85546875"/>
+    <col min="3" max="4" width="10.5703125"/>
+    <col min="5" max="5" width="16.42578125"/>
+    <col min="6" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="O15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="P16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="N18" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="O18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O23"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M6" activeCellId="0" pane="topLeft" sqref="M6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.004048582996"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.5708502024291"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.2874493927125"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.5748987854251"/>
+    <col min="1" max="2" width="10.5703125"/>
+    <col min="3" max="3" width="17"/>
+    <col min="4" max="7" width="10.5703125"/>
+    <col min="8" max="8" width="25.5703125"/>
+    <col min="9" max="12" width="10.5703125"/>
+    <col min="13" max="13" width="31.28515625"/>
+    <col min="14" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="C4" s="0" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>151</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>151</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="7">
         <v>217</v>
       </c>
-      <c r="E6" s="6" t="n">
-        <f aca="false">(D6/$D$4)-1</f>
-        <v>0.437086092715232</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="E6" s="8">
+        <f t="shared" ref="E6:E16" si="0">(D6/$D$4)-1</f>
+        <v>0.4370860927152318</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7">
         <v>12</v>
       </c>
-      <c r="J6" s="6" t="n">
-        <f aca="false">($I$4+I6)/$I$4-1</f>
-        <v>0.0794701986754967</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="J6" s="8">
+        <f t="shared" ref="J6:J12" si="1">($I$4+I6)/$I$4-1</f>
+        <v>7.9470198675496651E-2</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="N6" s="9">
         <v>0.34</v>
       </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="C7" s="8" t="s">
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="11">
         <v>214</v>
       </c>
-      <c r="E7" s="6" t="n">
-        <f aca="false">(D7/$D$4)-1</f>
-        <v>0.417218543046358</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.41721854304635753</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="11">
         <v>8</v>
       </c>
-      <c r="J7" s="6" t="n">
-        <f aca="false">($I$4+I7)/$I$4-1</f>
-        <v>0.0529801324503312</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="J7" s="8">
+        <f t="shared" si="1"/>
+        <v>5.2980132450331174E-2</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="10" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="C8" s="8" t="s">
+      <c r="N7" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="11">
         <v>201</v>
       </c>
-      <c r="E8" s="6" t="n">
-        <f aca="false">(D8/$D$4)-1</f>
-        <v>0.331125827814569</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.33112582781456945</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="11">
         <v>6</v>
       </c>
-      <c r="J8" s="6" t="n">
-        <f aca="false">($I$4+I8)/$I$4-1</f>
-        <v>0.0397350993377483</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9735099337748325E-2</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="10" t="n">
+      <c r="N8" s="12">
         <v>0.09</v>
       </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="C9" s="8" t="s">
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="11">
         <v>161</v>
       </c>
-      <c r="E9" s="6" t="n">
-        <f aca="false">(D9/$D$4)-1</f>
-        <v>0.0662251655629138</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>6.6225165562913801E-2</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="11">
         <v>-4</v>
       </c>
-      <c r="J9" s="6" t="n">
-        <f aca="false">($I$4+I9)/$I$4-1</f>
-        <v>-0.0264900662251656</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="J9" s="8">
+        <f t="shared" si="1"/>
+        <v>-2.6490066225165587E-2</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="10" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="C10" s="8" t="s">
+      <c r="N9" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="11">
         <v>141</v>
       </c>
-      <c r="E10" s="6" t="n">
-        <f aca="false">(D10/$D$4)-1</f>
-        <v>-0.0662251655629139</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.6225165562913912E-2</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="11">
         <v>-5</v>
       </c>
-      <c r="J10" s="6" t="n">
-        <f aca="false">($I$4+I10)/$I$4-1</f>
-        <v>-0.0331125827814569</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.3112582781456901E-2</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="10" t="n">
+      <c r="N10" s="12">
         <v>0.05</v>
       </c>
-      <c r="O10" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="C11" s="8" t="s">
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="11">
         <v>134</v>
       </c>
-      <c r="E11" s="6" t="n">
-        <f aca="false">(D11/$D$4)-1</f>
-        <v>-0.112582781456954</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.11258278145695366</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="11">
         <v>-9</v>
       </c>
-      <c r="J11" s="6" t="n">
-        <f aca="false">($I$4+I11)/$I$4-1</f>
-        <v>-0.0596026490066225</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="J11" s="8">
+        <f t="shared" si="1"/>
+        <v>-5.9602649006622488E-2</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="10" t="n">
+      <c r="N11" s="12">
         <v>0.05</v>
       </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="C12" s="8" t="s">
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="11">
         <v>126</v>
       </c>
-      <c r="E12" s="6" t="n">
-        <f aca="false">(D12/$D$4)-1</f>
-        <v>-0.165562913907285</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.16556291390728473</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="14">
         <v>-11</v>
       </c>
-      <c r="J12" s="6" t="n">
-        <f aca="false">($I$4+I12)/$I$4-1</f>
-        <v>-0.0728476821192053</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.2847682119205337E-2</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="10" t="n">
+      <c r="N12" s="12">
         <v>0.04</v>
       </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="C13" s="8" t="s">
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="11">
         <v>120</v>
       </c>
-      <c r="E13" s="6" t="n">
-        <f aca="false">(D13/$D$4)-1</f>
-        <v>-0.205298013245033</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.20529801324503316</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="10" t="n">
+      <c r="N13" s="12">
         <v>0.04</v>
       </c>
-      <c r="O13" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="C14" s="8" t="s">
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="11">
         <v>119</v>
       </c>
-      <c r="E14" s="6" t="n">
-        <f aca="false">(D14/$D$4)-1</f>
-        <v>-0.211920529801324</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.21192052980132448</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="10" t="n">
+      <c r="N14" s="12">
         <v>0.02</v>
       </c>
-      <c r="O14" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="C15" s="8" t="s">
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="11">
         <v>114</v>
       </c>
-      <c r="E15" s="6" t="n">
-        <f aca="false">(D15/$D$4)-1</f>
-        <v>-0.245033112582781</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.24503311258278149</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="10" t="n">
+      <c r="N15" s="12">
         <v>0.01</v>
       </c>
-      <c r="O15" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="C16" s="11" t="s">
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="14">
         <v>93</v>
       </c>
-      <c r="E16" s="6" t="n">
-        <f aca="false">(D16/$D$4)-1</f>
-        <v>-0.384105960264901</v>
-      </c>
-      <c r="M16" s="11" t="s">
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.38410596026490063</v>
+      </c>
+      <c r="M16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="N16" s="13" t="n">
+      <c r="N16" s="15">
         <v>0</v>
       </c>
-      <c r="O16" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="B20" s="0" t="s">
+      <c r="O16" s="8"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="7">
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="C22" s="8" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="11">
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="C23" s="11" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="14">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C32" activeCellId="0" pane="topLeft" sqref="C32"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1457489878542"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.5748987854251"/>
+    <col min="1" max="2" width="10.5703125"/>
+    <col min="3" max="3" width="16.85546875"/>
+    <col min="4" max="4" width="26.140625"/>
+    <col min="5" max="5" width="14.140625"/>
+    <col min="6" max="6" width="19.28515625"/>
+    <col min="7" max="7" width="15.85546875"/>
+    <col min="8" max="10" width="10.5703125"/>
+    <col min="11" max="11" width="11.42578125"/>
+    <col min="12" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>30</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>5052</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>133296</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>39061</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>108933</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>284630</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>565920</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>5254</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>153046</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>46800</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>47682</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>11275</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>258803</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>5952</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>105550</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>57075</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>330276</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>16018</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>508919</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>27</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>8013</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>396577</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>866018</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>221217</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>406965</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>1890777</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>8544</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>216457</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>129571</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>384064</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>7709</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>737801</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>8546</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>162299</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>133944</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>344853</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>466122</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>1107218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>9042</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>477087</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>756115</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>212232</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>325081</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>1770515</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>11587</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>326784</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>339260</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>859354</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>1324242</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>2849640</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>13553</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>504330</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>115540</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>287840</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>602768</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>1510478</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>14362</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>269316</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>418315</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>1681138</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>297324</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>2666093</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>14862</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>387159</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>32989</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>103271</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>439468</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>962887</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>15030</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>100957</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>37462</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>389644</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>1511801</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>2039864</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>16335</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>690142</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>174055</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>283809</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>495812</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>1643818</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>23</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>19739</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>957189</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>92565</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>509755</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>1232268</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>2791777</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>20</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>19975</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>1228765</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>459404</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>837063</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>19439</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>2544671</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>22</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>20301</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>588154</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>98868</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>634760</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>264961</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>1586743</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>20428</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>547823</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>48950</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>973469</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>3138405</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>4708647</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>22180</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>1918100</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>444674</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>2169025</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>953415</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>5485214</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>28</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>24330</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>401531</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>155337</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>509230</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>920478</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>1986576</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>29</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>25745</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>3338099</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>440593</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>1164122</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>950472</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>5893286</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>27178</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>1651660</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>55201</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>1958894</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>4459612</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>8125367</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>14</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>28186</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>834743</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>578777</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>2779107</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23">
         <v>2500160</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>6692787</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>26</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>28272</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>1352268</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>49236</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>269192</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24">
         <v>810745</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>2481441</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>15</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>28710</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>1386153</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>63733</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>1872213</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25">
         <v>11872</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>3333971</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>19</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>34000</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>2199930</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>687000</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>2550900</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>1391555</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>6829385</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>34810</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>794753</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>199660</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>2612865</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>3134700</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>6741978</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>31</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>34960</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>1219748</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>277441</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>2417921</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>4758523</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>8673633</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>37775</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>936938</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>53307</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>1861408</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>1448792</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>4300445</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>57843</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>873175</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>31931</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>1833682</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>1071517</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>3810305</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>24</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>64030</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>3361496</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>834182</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31">
         <v>1927245</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31">
         <v>2561182</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>8684105</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>88082</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>3503824</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>621467</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32">
         <v>1005806</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32">
         <v>5329455</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32">
         <v>10460552</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="C33" s="0" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>82</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="C34" s="0" t="n">
-        <f aca="false">I35+E34</f>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>I35+E34</f>
         <v>241</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>90</v>
       </c>
-      <c r="F34" s="0" t="n">
-        <f aca="false">I35-E34</f>
+      <c r="F34">
+        <f>I35-E34</f>
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>250</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35">
         <v>80</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35">
         <v>151</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="B36" s="0" t="n">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>5000</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <f aca="false">$C$35*B36</f>
+      <c r="C36">
+        <f>$C$35*B36</f>
         <v>1250000</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>5000</v>
       </c>
-      <c r="F36" s="0" t="n">
-        <f aca="false">$F$35*E36</f>
+      <c r="F36">
+        <f>$F$35*E36</f>
         <v>400000</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36">
         <v>5000</v>
       </c>
-      <c r="I36" s="0" t="n">
-        <f aca="false">$I$35*H36</f>
+      <c r="I36">
+        <f>$I$35*H36</f>
         <v>755000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="B37" s="0" t="n">
-        <f aca="false">B36+2000</f>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>B36+2000</f>
         <v>7000</v>
       </c>
-      <c r="C37" s="0" t="n">
-        <f aca="false">$C$35*B37</f>
+      <c r="C37">
+        <f>$C$35*B37</f>
         <v>1750000</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <f aca="false">E36+5000</f>
+      <c r="E37">
+        <f>E36+5000</f>
         <v>10000</v>
       </c>
-      <c r="F37" s="0" t="n">
-        <f aca="false">$F$35*E37</f>
+      <c r="F37">
+        <f>$F$35*E37</f>
         <v>800000</v>
       </c>
-      <c r="H37" s="0" t="n">
-        <f aca="false">H36+5000</f>
+      <c r="H37">
+        <f>H36+5000</f>
         <v>10000</v>
       </c>
-      <c r="I37" s="0" t="n">
-        <f aca="false">$I$35*H37</f>
+      <c r="I37">
+        <f>$I$35*H37</f>
         <v>1510000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
-      <c r="B38" s="0" t="n">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>88082</v>
       </c>
-      <c r="C38" s="0" t="n">
-        <f aca="false">$C$35*B38</f>
+      <c r="C38">
+        <f>$C$35*B38</f>
         <v>22020500</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>88082</v>
       </c>
-      <c r="F38" s="0" t="n">
-        <f aca="false">$F$35*E38</f>
+      <c r="F38">
+        <f>$F$35*E38</f>
         <v>7046560</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38">
         <v>88082</v>
       </c>
-      <c r="I38" s="0" t="n">
-        <f aca="false">$I$35*H38</f>
+      <c r="I38">
+        <f>$I$35*H38</f>
         <v>13300382</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="K4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="S4" activeCellId="0" pane="topLeft" sqref="S4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.004048582996"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7125506072874"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="17" min="14" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.9676113360324"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="16.42578125"/>
+    <col min="3" max="3" width="17"/>
+    <col min="4" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="30.7109375"/>
+    <col min="7" max="8" width="10.5703125"/>
+    <col min="9" max="9" width="25.28515625"/>
+    <col min="10" max="12" width="10.5703125"/>
+    <col min="13" max="13" width="11.42578125"/>
+    <col min="14" max="17" width="10.5703125"/>
+    <col min="18" max="18" width="12"/>
+    <col min="19" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R5" s="15"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="B6" s="14"/>
-      <c r="Q6" s="0" t="n">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="0" t="n">
-        <f aca="false">D7</f>
+      <c r="R6">
+        <f>D7</f>
         <v>512</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>512</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="0" t="n">
-        <f aca="false">D21+J19+J21+J23+J25</f>
+      <c r="P7">
+        <f>D21+J19+J21+J23+J25</f>
         <v>203</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="16" t="n">
-        <f aca="false">P7*D7</f>
+      <c r="R7" s="17">
+        <f>P7*D7</f>
         <v>103936</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="0" t="n">
-        <f aca="false">(E14*D21)+J19+J21+J23+J25</f>
-        <v>108.490066225166</v>
-      </c>
-      <c r="Q8" s="0" t="n">
+      <c r="P8">
+        <f>(E14*D21)+J19+J21+J23+J25</f>
+        <v>108.49006622516558</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="16" t="n">
-        <f aca="false">P8*D7</f>
-        <v>55546.9139072848</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="C9" s="0" t="s">
+      <c r="R8" s="17">
+        <f>P8*D7</f>
+        <v>55546.913907284776</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="0" t="n">
-        <f aca="false">(E15*D21)+J19+J21+J23+J25</f>
-        <v>334.781456953642</v>
-      </c>
-      <c r="Q9" s="0" t="n">
+      <c r="P9">
+        <f>(E15*D21)+J19+J21+J23+J25</f>
+        <v>334.78145695364236</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="16" t="n">
-        <f aca="false">P9*D7</f>
-        <v>171408.105960265</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="B11" s="14" t="s">
+      <c r="R9" s="17">
+        <f>P9*D7</f>
+        <v>171408.10596026489</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="C13" s="0" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="R13" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="C14" s="0" t="s">
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>80</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">D14/D16</f>
-        <v>0.529801324503311</v>
-      </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="C15" s="0" t="s">
+      <c r="E14">
+        <f>D14/D16</f>
+        <v>0.5298013245033113</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>250</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">D15/D16</f>
-        <v>1.65562913907285</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="C16" s="0" t="s">
+      <c r="E15">
+        <f>D15/D16</f>
+        <v>1.6556291390728477</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>151</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="C18" s="18" t="s">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="R18" s="0" t="s">
+      <c r="J18" s="1"/>
+      <c r="R18" t="s">
         <v>71</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="S18" t="s">
         <v>99</v>
       </c>
-      <c r="T18" s="0" t="s">
+      <c r="T18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="C19" s="0" t="s">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>217</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="20" t="n">
+      <c r="G19" s="20">
         <v>0.34</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="19" t="n">
+      <c r="J19" s="19">
         <v>12</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" t="s">
         <v>103</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="16" t="n">
-        <f aca="false">$P$8*G19</f>
-        <v>36.8866225165563</v>
-      </c>
-      <c r="S19" s="16" t="n">
-        <f aca="false">$P$7*G19</f>
-        <v>69.02</v>
-      </c>
-      <c r="T19" s="16" t="n">
-        <f aca="false">$P$9*G19</f>
-        <v>113.825695364238</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="C20" s="0" t="s">
+      <c r="R19" s="17">
+        <f t="shared" ref="R19:R29" si="0">$P$8*G19</f>
+        <v>36.886622516556301</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" ref="S19:S29" si="1">$P$7*G19</f>
+        <v>69.02000000000001</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" ref="T19:T29" si="2">$P$9*G19</f>
+        <v>113.82569536423841</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>214</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="20" t="n">
-        <v>0.29</v>
+      <c r="G20" s="20">
+        <v>0.28999999999999998</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="19" t="n">
+      <c r="J20" s="19">
         <v>8</v>
       </c>
       <c r="O20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R20" s="16" t="n">
-        <f aca="false">$P$8*G20</f>
-        <v>31.462119205298</v>
-      </c>
-      <c r="S20" s="16" t="n">
-        <f aca="false">$P$7*G20</f>
+      <c r="R20" s="17">
+        <f t="shared" si="0"/>
+        <v>31.462119205298016</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="1"/>
         <v>58.87</v>
       </c>
-      <c r="T20" s="16" t="n">
-        <f aca="false">$P$9*G20</f>
-        <v>97.0866225165563</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="C21" s="0" t="s">
+      <c r="T20" s="17">
+        <f t="shared" si="2"/>
+        <v>97.086622516556275</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>201</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="20" t="n">
+      <c r="G21" s="20">
         <v>0.09</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="19" t="n">
+      <c r="J21" s="19">
         <v>6</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="16" t="n">
-        <f aca="false">$P$8*G21</f>
-        <v>9.7641059602649</v>
-      </c>
-      <c r="S21" s="16" t="n">
-        <f aca="false">$P$7*G21</f>
+      <c r="R21" s="17">
+        <f t="shared" si="0"/>
+        <v>9.7641059602649012</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" si="1"/>
         <v>18.27</v>
       </c>
-      <c r="T21" s="16" t="n">
-        <f aca="false">$P$9*G21</f>
-        <v>30.1303311258278</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="C22" s="0" t="s">
+      <c r="T21" s="17">
+        <f t="shared" si="2"/>
+        <v>30.130331125827812</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>161</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="20" t="n">
-        <v>0.07</v>
+      <c r="G22" s="20">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="19" t="n">
+      <c r="J22" s="19">
         <v>-4</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R22" s="16" t="n">
-        <f aca="false">$P$8*G22</f>
-        <v>7.59430463576159</v>
-      </c>
-      <c r="S22" s="16" t="n">
-        <f aca="false">$P$7*G22</f>
+      <c r="R22" s="17">
+        <f t="shared" si="0"/>
+        <v>7.5943046357615911</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" si="1"/>
         <v>14.21</v>
       </c>
-      <c r="T22" s="16" t="n">
-        <f aca="false">$P$9*G22</f>
-        <v>23.434701986755</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="C23" s="0" t="s">
+      <c r="T22" s="17">
+        <f t="shared" si="2"/>
+        <v>23.434701986754966</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>141</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="20" t="n">
+      <c r="G23" s="20">
         <v>0.05</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J23" s="19">
         <v>-5</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R23" s="16" t="n">
-        <f aca="false">$P$8*G23</f>
-        <v>5.42450331125828</v>
-      </c>
-      <c r="S23" s="16" t="n">
-        <f aca="false">$P$7*G23</f>
+      <c r="R23" s="17">
+        <f t="shared" si="0"/>
+        <v>5.4245033112582792</v>
+      </c>
+      <c r="S23" s="17">
+        <f t="shared" si="1"/>
         <v>10.15</v>
       </c>
-      <c r="T23" s="16" t="n">
-        <f aca="false">$P$9*G23</f>
-        <v>16.7390728476821</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="C24" s="0" t="s">
+      <c r="T23" s="17">
+        <f t="shared" si="2"/>
+        <v>16.73907284768212</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>134</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="G24" s="20">
         <v>0.05</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="19" t="n">
+      <c r="J24" s="19">
         <v>-9</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R24" s="16" t="n">
-        <f aca="false">$P$8*G24</f>
-        <v>5.42450331125828</v>
-      </c>
-      <c r="S24" s="16" t="n">
-        <f aca="false">$P$7*G24</f>
+      <c r="R24" s="17">
+        <f t="shared" si="0"/>
+        <v>5.4245033112582792</v>
+      </c>
+      <c r="S24" s="17">
+        <f t="shared" si="1"/>
         <v>10.15</v>
       </c>
-      <c r="T24" s="16" t="n">
-        <f aca="false">$P$9*G24</f>
-        <v>16.7390728476821</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="C25" s="0" t="s">
+      <c r="T24" s="17">
+        <f t="shared" si="2"/>
+        <v>16.73907284768212</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>126</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="20" t="n">
+      <c r="G25" s="20">
         <v>0.04</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="19" t="n">
+      <c r="J25" s="19">
         <v>-11</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R25" s="16" t="n">
-        <f aca="false">$P$8*G25</f>
-        <v>4.33960264900662</v>
-      </c>
-      <c r="S25" s="16" t="n">
-        <f aca="false">$P$7*G25</f>
-        <v>8.12</v>
-      </c>
-      <c r="T25" s="16" t="n">
-        <f aca="false">$P$9*G25</f>
-        <v>13.3912582781457</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="C26" s="0" t="s">
+      <c r="R25" s="17">
+        <f t="shared" si="0"/>
+        <v>4.3396026490066228</v>
+      </c>
+      <c r="S25" s="17">
+        <f t="shared" si="1"/>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="2"/>
+        <v>13.391258278145695</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>120</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="20" t="n">
+      <c r="G26" s="20">
         <v>0.04</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R26" s="16" t="n">
-        <f aca="false">$P$8*G26</f>
-        <v>4.33960264900662</v>
-      </c>
-      <c r="S26" s="16" t="n">
-        <f aca="false">$P$7*G26</f>
-        <v>8.12</v>
-      </c>
-      <c r="T26" s="16" t="n">
-        <f aca="false">$P$9*G26</f>
-        <v>13.3912582781457</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="C27" s="0" t="s">
+      <c r="R26" s="17">
+        <f t="shared" si="0"/>
+        <v>4.3396026490066228</v>
+      </c>
+      <c r="S26" s="17">
+        <f t="shared" si="1"/>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="T26" s="17">
+        <f t="shared" si="2"/>
+        <v>13.391258278145695</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>119</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="20" t="n">
+      <c r="G27" s="20">
         <v>0.02</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="R27" s="16" t="n">
-        <f aca="false">$P$8*G27</f>
-        <v>2.16980132450331</v>
-      </c>
-      <c r="S27" s="16" t="n">
-        <f aca="false">$P$7*G27</f>
-        <v>4.06</v>
-      </c>
-      <c r="T27" s="16" t="n">
-        <f aca="false">$P$9*G27</f>
-        <v>6.69562913907285</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="C28" s="0" t="s">
+      <c r="R27" s="17">
+        <f t="shared" si="0"/>
+        <v>2.1698013245033114</v>
+      </c>
+      <c r="S27" s="17">
+        <f t="shared" si="1"/>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="T27" s="17">
+        <f t="shared" si="2"/>
+        <v>6.6956291390728477</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>114</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="20" t="n">
+      <c r="G28" s="20">
         <v>0.01</v>
       </c>
       <c r="O28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="R28" s="16" t="n">
-        <f aca="false">$P$8*G28</f>
-        <v>1.08490066225166</v>
-      </c>
-      <c r="S28" s="16" t="n">
-        <f aca="false">$P$7*G28</f>
-        <v>2.03</v>
-      </c>
-      <c r="T28" s="16" t="n">
-        <f aca="false">$P$9*G28</f>
-        <v>3.34781456953642</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="C29" s="0" t="s">
+      <c r="R28" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0849006622516557</v>
+      </c>
+      <c r="S28" s="17">
+        <f t="shared" si="1"/>
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="T28" s="17">
+        <f t="shared" si="2"/>
+        <v>3.3478145695364239</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>93</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="20" t="n">
+      <c r="G29" s="20">
         <v>0</v>
       </c>
       <c r="O29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R29" s="16" t="n">
-        <f aca="false">$P$8*G29</f>
+      <c r="R29" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S29" s="16" t="n">
-        <f aca="false">$P$7*G29</f>
+      <c r="S29" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T29" s="16" t="n">
-        <f aca="false">$P$9*G29</f>
+      <c r="T29" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4079,552 +4823,542 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="I18:J18"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="N1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="R1" activeCellId="0" pane="topLeft" sqref="R1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.004048582996"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7125506072874"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="17" min="10" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="16.42578125"/>
+    <col min="3" max="3" width="17"/>
+    <col min="4" max="4" width="11.7109375"/>
+    <col min="5" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="30.7109375"/>
+    <col min="7" max="8" width="10.5703125"/>
+    <col min="9" max="9" width="25.28515625"/>
+    <col min="10" max="17" width="10.5703125"/>
+    <col min="18" max="18" width="18.42578125"/>
+    <col min="19" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="B6" s="14"/>
-      <c r="R6" s="0" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="R6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="21">
         <v>5000000</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="0" t="n">
-        <f aca="false">D26+J20+J22+J24</f>
+      <c r="P7">
+        <f>D26+J20+J22+J24</f>
         <v>115</v>
       </c>
-      <c r="R7" s="16" t="n">
-        <f aca="false">P7*D7</f>
+      <c r="R7" s="17">
+        <f>P7*D7</f>
         <v>575000000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>106</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="0" t="n">
-        <f aca="false">(E14*D26)+J20+J22+J24</f>
-        <v>58.5761589403974</v>
-      </c>
-      <c r="R8" s="16" t="n">
-        <f aca="false">P8*D7</f>
-        <v>292880794.701987</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="C9" s="0" t="s">
+      <c r="P8">
+        <f>(E14*D26)+J20+J22+J24</f>
+        <v>58.576158940397363</v>
+      </c>
+      <c r="R8" s="17">
+        <f>P8*D7</f>
+        <v>292880794.70198679</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="0" t="n">
-        <f aca="false">(E15*D26)+J20+J22+J24</f>
-        <v>193.675496688742</v>
-      </c>
-      <c r="R9" s="16" t="n">
-        <f aca="false">P9*D7</f>
-        <v>968377483.443709</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="B11" s="14" t="s">
+      <c r="P9">
+        <f>(E15*D26)+J20+J22+J24</f>
+        <v>193.67549668874173</v>
+      </c>
+      <c r="R9" s="17">
+        <f>P9*D7</f>
+        <v>968377483.44370866</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="S11" t="s">
         <v>99</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="T11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="M12" s="0" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
         <v>103</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="16" t="n">
-        <f aca="false">$P$8*G19</f>
-        <v>19.9158940397351</v>
-      </c>
-      <c r="S12" s="16" t="n">
-        <f aca="false">$P$7*G19</f>
+      <c r="R12" s="17">
+        <f t="shared" ref="R12:R22" si="0">$P$8*G19</f>
+        <v>19.915894039735104</v>
+      </c>
+      <c r="S12" s="17">
+        <f t="shared" ref="S12:S22" si="1">$P$7*G19</f>
         <v>39.1</v>
       </c>
-      <c r="T12" s="16" t="n">
-        <f aca="false">$P$9*G19</f>
-        <v>65.8496688741722</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="C13" s="0" t="s">
+      <c r="T12" s="17">
+        <f t="shared" ref="T12:T22" si="2">$P$9*G19</f>
+        <v>65.849668874172195</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>98</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="16" t="n">
-        <f aca="false">$P$8*G20</f>
-        <v>16.9870860927152</v>
-      </c>
-      <c r="S13" s="16" t="n">
-        <f aca="false">$P$7*G20</f>
-        <v>33.35</v>
-      </c>
-      <c r="T13" s="16" t="n">
-        <f aca="false">$P$9*G20</f>
+      <c r="R13" s="17">
+        <f t="shared" si="0"/>
+        <v>16.987086092715234</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" si="1"/>
+        <v>33.349999999999994</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" si="2"/>
         <v>56.1658940397351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>80</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">D14/D16</f>
-        <v>0.529801324503311</v>
+      <c r="E14">
+        <f>D14/D16</f>
+        <v>0.5298013245033113</v>
       </c>
       <c r="O14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="16" t="n">
-        <f aca="false">$P$8*G21</f>
-        <v>5.27185430463576</v>
-      </c>
-      <c r="S14" s="16" t="n">
-        <f aca="false">$P$7*G21</f>
+      <c r="R14" s="17">
+        <f t="shared" si="0"/>
+        <v>5.2718543046357622</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="1"/>
         <v>10.35</v>
       </c>
-      <c r="T14" s="16" t="n">
-        <f aca="false">$P$9*G21</f>
-        <v>17.4307947019868</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="C15" s="0" t="s">
+      <c r="T14" s="17">
+        <f t="shared" si="2"/>
+        <v>17.430794701986756</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>250</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">D15/D16</f>
-        <v>1.65562913907285</v>
+      <c r="E15">
+        <f>D15/D16</f>
+        <v>1.6556291390728477</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="16" t="n">
-        <f aca="false">$P$8*G22</f>
-        <v>4.10033112582782</v>
-      </c>
-      <c r="S15" s="16" t="n">
-        <f aca="false">$P$7*G22</f>
-        <v>8.05</v>
-      </c>
-      <c r="T15" s="16" t="n">
-        <f aca="false">$P$9*G22</f>
-        <v>13.5572847682119</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="C16" s="0" t="s">
+      <c r="R15" s="17">
+        <f t="shared" si="0"/>
+        <v>4.1003311258278154</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="1"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="2"/>
+        <v>13.557284768211922</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>151</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="16" t="n">
-        <f aca="false">$P$8*G23</f>
-        <v>2.92880794701987</v>
-      </c>
-      <c r="S16" s="16" t="n">
-        <f aca="false">$P$7*G23</f>
+      <c r="R16" s="17">
+        <f t="shared" si="0"/>
+        <v>2.9288079470198682</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
-      <c r="T16" s="16" t="n">
-        <f aca="false">$P$9*G23</f>
-        <v>9.68377483443709</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+      <c r="T16" s="17">
+        <f t="shared" si="2"/>
+        <v>9.683774834437088</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="16" t="n">
-        <f aca="false">$P$8*G24</f>
-        <v>2.92880794701987</v>
-      </c>
-      <c r="S17" s="16" t="n">
-        <f aca="false">$P$7*G24</f>
+      <c r="R17" s="17">
+        <f t="shared" si="0"/>
+        <v>2.9288079470198682</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
-      <c r="T17" s="16" t="n">
-        <f aca="false">$P$9*G24</f>
-        <v>9.68377483443709</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="C18" s="18" t="s">
+      <c r="T17" s="17">
+        <f t="shared" si="2"/>
+        <v>9.683774834437088</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="1"/>
       <c r="O18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="16" t="n">
-        <f aca="false">$P$8*G25</f>
-        <v>2.34304635761589</v>
-      </c>
-      <c r="S18" s="16" t="n">
-        <f aca="false">$P$7*G25</f>
-        <v>4.6</v>
-      </c>
-      <c r="T18" s="16" t="n">
-        <f aca="false">$P$9*G25</f>
-        <v>7.74701986754967</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="C19" s="0" t="s">
+      <c r="R18" s="17">
+        <f t="shared" si="0"/>
+        <v>2.3430463576158944</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="2"/>
+        <v>7.7470198675496693</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>217</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="20" t="n">
+      <c r="G19" s="20">
         <v>0.34</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="19" t="n">
+      <c r="J19" s="19">
         <v>12</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="16" t="n">
-        <f aca="false">$P$8*G26</f>
-        <v>2.34304635761589</v>
-      </c>
-      <c r="S19" s="16" t="n">
-        <f aca="false">$P$7*G26</f>
-        <v>4.6</v>
-      </c>
-      <c r="T19" s="16" t="n">
-        <f aca="false">$P$9*G26</f>
-        <v>7.74701986754967</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="C20" s="0" t="s">
+      <c r="R19" s="17">
+        <f t="shared" si="0"/>
+        <v>2.3430463576158944</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="2"/>
+        <v>7.7470198675496693</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>214</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="20" t="n">
-        <v>0.29</v>
+      <c r="G20" s="20">
+        <v>0.28999999999999998</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="19" t="n">
+      <c r="J20" s="19">
         <v>8</v>
       </c>
       <c r="O20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="16" t="n">
-        <f aca="false">$P$8*G27</f>
-        <v>1.17152317880795</v>
-      </c>
-      <c r="S20" s="16" t="n">
-        <f aca="false">$P$7*G27</f>
-        <v>2.3</v>
-      </c>
-      <c r="T20" s="16" t="n">
-        <f aca="false">$P$9*G27</f>
-        <v>3.87350993377483</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="C21" s="0" t="s">
+      <c r="R20" s="17">
+        <f t="shared" si="0"/>
+        <v>1.1715231788079472</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="1"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="2"/>
+        <v>3.8735099337748347</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>201</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="20" t="n">
+      <c r="G21" s="20">
         <v>0.09</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="19" t="n">
+      <c r="J21" s="19">
         <v>6</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="16" t="n">
-        <f aca="false">$P$8*G28</f>
-        <v>0.585761589403974</v>
-      </c>
-      <c r="S21" s="16" t="n">
-        <f aca="false">$P$7*G28</f>
-        <v>1.15</v>
-      </c>
-      <c r="T21" s="16" t="n">
-        <f aca="false">$P$9*G28</f>
-        <v>1.93675496688742</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="C22" s="0" t="s">
+      <c r="R21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.5857615894039736</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="2"/>
+        <v>1.9367549668874173</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>161</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="20" t="n">
-        <v>0.07</v>
+      <c r="G22" s="20">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="19" t="n">
+      <c r="J22" s="19">
         <v>-4</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="16" t="n">
-        <f aca="false">$P$8*G29</f>
+      <c r="R22" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="16" t="n">
-        <f aca="false">$P$7*G29</f>
+      <c r="S22" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="16" t="n">
-        <f aca="false">$P$9*G29</f>
+      <c r="T22" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="C23" s="0" t="s">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>141</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="20" t="n">
+      <c r="G23" s="20">
         <v>0.05</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J23" s="19">
         <v>-5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="C24" s="0" t="s">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>134</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="G24" s="20">
         <v>0.05</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="19" t="n">
+      <c r="J24" s="19">
         <v>-9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="C25" s="0" t="s">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>126</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="20" t="n">
+      <c r="G25" s="20">
         <v>0.04</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="19" t="n">
+      <c r="J25" s="19">
         <v>-11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>120</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="20" t="n">
+      <c r="G26" s="20">
         <v>0.04</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>119</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="20" t="n">
+      <c r="G27" s="20">
         <v>0.02</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>114</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="20" t="n">
+      <c r="G28" s="20">
         <v>0.01</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>93</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="20" t="n">
+      <c r="G29" s="20">
         <v>0</v>
       </c>
     </row>
@@ -4634,551 +5368,541 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="I18:J18"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="L1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="S25" activeCellId="0" pane="topLeft" sqref="S25"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.004048582996"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7125506072874"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="17" min="10" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.5748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="16.42578125"/>
+    <col min="3" max="3" width="17"/>
+    <col min="4" max="4" width="15.28515625"/>
+    <col min="5" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="30.7109375"/>
+    <col min="7" max="8" width="10.5703125"/>
+    <col min="9" max="9" width="25.28515625"/>
+    <col min="10" max="17" width="10.5703125"/>
+    <col min="18" max="18" width="21.5703125"/>
+    <col min="19" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="B6" s="14"/>
-      <c r="R6" s="0" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="R6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="21">
         <v>2000000000</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="0" t="n">
-        <f aca="false">D19+J19+J20+J21</f>
+      <c r="P7">
+        <f>D19+J19+J20+J21</f>
         <v>243</v>
       </c>
-      <c r="R7" s="16" t="n">
-        <f aca="false">P7*D7</f>
+      <c r="R7" s="17">
+        <f>P7*D7</f>
         <v>486000000000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>109</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="0" t="n">
-        <f aca="false">(E14*D19)+J19+J20+J21</f>
-        <v>140.966887417219</v>
-      </c>
-      <c r="R8" s="16" t="n">
-        <f aca="false">P8*D7</f>
-        <v>281933774834.437</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="C9" s="0" t="s">
+      <c r="P8">
+        <f>(E14*D19)+J19+J20+J21</f>
+        <v>140.96688741721857</v>
+      </c>
+      <c r="R8" s="17">
+        <f>P8*D7</f>
+        <v>281933774834.43713</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>110</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="0" t="n">
-        <f aca="false">(E15*D19)+J19+J20+J21</f>
-        <v>385.271523178808</v>
-      </c>
-      <c r="R9" s="16" t="n">
-        <f aca="false">P9*D7</f>
-        <v>770543046357.616</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="B11" s="14" t="s">
+      <c r="P9">
+        <f>(E15*D19)+J19+J20+J21</f>
+        <v>385.27152317880797</v>
+      </c>
+      <c r="R9" s="17">
+        <f>P9*D7</f>
+        <v>770543046357.61597</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="S11" t="s">
         <v>99</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="T11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="M12" s="0" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
         <v>103</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="16" t="n">
-        <f aca="false">$P$8*G19</f>
-        <v>47.9287417218543</v>
-      </c>
-      <c r="S12" s="16" t="n">
-        <f aca="false">$P$7*G19</f>
+      <c r="R12" s="17">
+        <f t="shared" ref="R12:R22" si="0">$P$8*G19</f>
+        <v>47.928741721854315</v>
+      </c>
+      <c r="S12" s="17">
+        <f t="shared" ref="S12:S22" si="1">$P$7*G19</f>
         <v>82.62</v>
       </c>
-      <c r="T12" s="16" t="n">
-        <f aca="false">$P$9*G19</f>
-        <v>130.992317880795</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="C13" s="0" t="s">
+      <c r="T12" s="17">
+        <f t="shared" ref="T12:T22" si="2">$P$9*G19</f>
+        <v>130.99231788079473</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>98</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="16" t="n">
-        <f aca="false">$P$8*G20</f>
-        <v>40.8803973509934</v>
-      </c>
-      <c r="S13" s="16" t="n">
-        <f aca="false">$P$7*G20</f>
+      <c r="R13" s="17">
+        <f t="shared" si="0"/>
+        <v>40.880397350993384</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" si="1"/>
         <v>70.47</v>
       </c>
-      <c r="T13" s="16" t="n">
-        <f aca="false">$P$9*G20</f>
-        <v>111.728741721854</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="C14" s="0" t="s">
+      <c r="T13" s="17">
+        <f t="shared" si="2"/>
+        <v>111.72874172185431</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>80</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">D14/D16</f>
-        <v>0.529801324503311</v>
+      <c r="E14">
+        <f>D14/D16</f>
+        <v>0.5298013245033113</v>
       </c>
       <c r="O14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="16" t="n">
-        <f aca="false">$P$8*G21</f>
-        <v>12.6870198675497</v>
-      </c>
-      <c r="S14" s="16" t="n">
-        <f aca="false">$P$7*G21</f>
-        <v>21.87</v>
-      </c>
-      <c r="T14" s="16" t="n">
-        <f aca="false">$P$9*G21</f>
-        <v>34.6744370860927</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="C15" s="0" t="s">
+      <c r="R14" s="17">
+        <f t="shared" si="0"/>
+        <v>12.687019867549671</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="1"/>
+        <v>21.869999999999997</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="2"/>
+        <v>34.674437086092716</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>250</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">D15/D16</f>
-        <v>1.65562913907285</v>
+      <c r="E15">
+        <f>D15/D16</f>
+        <v>1.6556291390728477</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="16" t="n">
-        <f aca="false">$P$8*G22</f>
-        <v>9.8676821192053</v>
-      </c>
-      <c r="S15" s="16" t="n">
-        <f aca="false">$P$7*G22</f>
-        <v>17.01</v>
-      </c>
-      <c r="T15" s="16" t="n">
-        <f aca="false">$P$9*G22</f>
-        <v>26.9690066225166</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="C16" s="0" t="s">
+      <c r="R15" s="17">
+        <f t="shared" si="0"/>
+        <v>9.8676821192053001</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="1"/>
+        <v>17.010000000000002</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="2"/>
+        <v>26.969006622516559</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>151</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="16" t="n">
-        <f aca="false">$P$8*G23</f>
-        <v>7.04834437086093</v>
-      </c>
-      <c r="S16" s="16" t="n">
-        <f aca="false">$P$7*G23</f>
+      <c r="R16" s="17">
+        <f t="shared" si="0"/>
+        <v>7.0483443708609288</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="1"/>
         <v>12.15</v>
       </c>
-      <c r="T16" s="16" t="n">
-        <f aca="false">$P$9*G23</f>
-        <v>19.2635761589404</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+      <c r="T16" s="17">
+        <f t="shared" si="2"/>
+        <v>19.263576158940399</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="16" t="n">
-        <f aca="false">$P$8*G24</f>
-        <v>7.04834437086093</v>
-      </c>
-      <c r="S17" s="16" t="n">
-        <f aca="false">$P$7*G24</f>
+      <c r="R17" s="17">
+        <f t="shared" si="0"/>
+        <v>7.0483443708609288</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="1"/>
         <v>12.15</v>
       </c>
-      <c r="T17" s="16" t="n">
-        <f aca="false">$P$9*G24</f>
-        <v>19.2635761589404</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="C18" s="18" t="s">
+      <c r="T17" s="17">
+        <f t="shared" si="2"/>
+        <v>19.263576158940399</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="1"/>
       <c r="O18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="16" t="n">
-        <f aca="false">$P$8*G25</f>
-        <v>5.63867549668874</v>
-      </c>
-      <c r="S18" s="16" t="n">
-        <f aca="false">$P$7*G25</f>
-        <v>9.72</v>
-      </c>
-      <c r="T18" s="16" t="n">
-        <f aca="false">$P$9*G25</f>
-        <v>15.4108609271523</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="C19" s="0" t="s">
+      <c r="R18" s="17">
+        <f t="shared" si="0"/>
+        <v>5.6386754966887427</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="1"/>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="2"/>
+        <v>15.410860927152319</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>217</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="20" t="n">
+      <c r="G19" s="20">
         <v>0.34</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="19" t="n">
+      <c r="J19" s="19">
         <v>12</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="16" t="n">
-        <f aca="false">$P$8*G26</f>
-        <v>5.63867549668874</v>
-      </c>
-      <c r="S19" s="16" t="n">
-        <f aca="false">$P$7*G26</f>
-        <v>9.72</v>
-      </c>
-      <c r="T19" s="16" t="n">
-        <f aca="false">$P$9*G26</f>
-        <v>15.4108609271523</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="C20" s="0" t="s">
+      <c r="R19" s="17">
+        <f t="shared" si="0"/>
+        <v>5.6386754966887427</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="1"/>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="T19" s="17">
+        <f t="shared" si="2"/>
+        <v>15.410860927152319</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>214</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="20" t="n">
-        <v>0.29</v>
+      <c r="G20" s="20">
+        <v>0.28999999999999998</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="19" t="n">
+      <c r="J20" s="19">
         <v>8</v>
       </c>
       <c r="O20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="16" t="n">
-        <f aca="false">$P$8*G27</f>
-        <v>2.81933774834437</v>
-      </c>
-      <c r="S20" s="16" t="n">
-        <f aca="false">$P$7*G27</f>
-        <v>4.86</v>
-      </c>
-      <c r="T20" s="16" t="n">
-        <f aca="false">$P$9*G27</f>
-        <v>7.70543046357616</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="C21" s="0" t="s">
+      <c r="R20" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8193377483443713</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="1"/>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="T20" s="17">
+        <f t="shared" si="2"/>
+        <v>7.7054304635761595</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>201</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="20" t="n">
+      <c r="G21" s="20">
         <v>0.09</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="19" t="n">
+      <c r="J21" s="19">
         <v>6</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="16" t="n">
-        <f aca="false">$P$8*G28</f>
-        <v>1.40966887417219</v>
-      </c>
-      <c r="S21" s="16" t="n">
-        <f aca="false">$P$7*G28</f>
-        <v>2.43</v>
-      </c>
-      <c r="T21" s="16" t="n">
-        <f aca="false">$P$9*G28</f>
-        <v>3.85271523178808</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="C22" s="0" t="s">
+      <c r="R21" s="17">
+        <f t="shared" si="0"/>
+        <v>1.4096688741721857</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" si="1"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="2"/>
+        <v>3.8527152317880797</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>161</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="20" t="n">
-        <v>0.07</v>
+      <c r="G22" s="20">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="19" t="n">
+      <c r="J22" s="19">
         <v>-4</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="16" t="n">
-        <f aca="false">$P$8*G29</f>
+      <c r="R22" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="16" t="n">
-        <f aca="false">$P$7*G29</f>
+      <c r="S22" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="16" t="n">
-        <f aca="false">$P$9*G29</f>
+      <c r="T22" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="C23" s="0" t="s">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>141</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="20" t="n">
+      <c r="G23" s="20">
         <v>0.05</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J23" s="19">
         <v>-5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="C24" s="0" t="s">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>134</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="G24" s="20">
         <v>0.05</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="19" t="n">
+      <c r="J24" s="19">
         <v>-9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="C25" s="0" t="s">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>126</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="20" t="n">
+      <c r="G25" s="20">
         <v>0.04</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="19" t="n">
+      <c r="J25" s="19">
         <v>-11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>120</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="20" t="n">
+      <c r="G26" s="20">
         <v>0.04</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>119</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="20" t="n">
+      <c r="G27" s="20">
         <v>0.02</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>114</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="20" t="n">
+      <c r="G28" s="20">
         <v>0.01</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>93</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="20" t="n">
+      <c r="G29" s="20">
         <v>0</v>
       </c>
     </row>
@@ -5188,641 +5912,609 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="I18:J18"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="O1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U26" activeCellId="0" pane="topLeft" sqref="U26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.004048582996"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.7125506072874"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="16.42578125"/>
+    <col min="3" max="3" width="17"/>
+    <col min="4" max="4" width="15.28515625"/>
+    <col min="5" max="5" width="10.5703125"/>
+    <col min="6" max="6" width="30.7109375"/>
+    <col min="7" max="8" width="10.5703125"/>
+    <col min="9" max="9" width="25.28515625"/>
+    <col min="10" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="B6" s="14"/>
-      <c r="R6" s="0" t="s">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="R6" t="s">
         <v>105</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="W6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="21">
         <v>50</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="0" t="n">
-        <f aca="false">D29+J22+J23+J24+J25</f>
+      <c r="P7">
+        <f>D29+J22+J23+J24+J25</f>
         <v>64</v>
       </c>
-      <c r="R7" s="16" t="n">
-        <f aca="false">P7*D7</f>
+      <c r="R7" s="17">
+        <f>P7*D7</f>
         <v>3200</v>
       </c>
-      <c r="W7" s="22" t="n">
-        <f aca="false">P7*W10</f>
+      <c r="W7" s="22">
+        <f>P7*W10</f>
         <v>1600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="0" t="n">
-        <f aca="false">(E14*D29)+J22+J23+J24+J25</f>
-        <v>20.271523178808</v>
-      </c>
-      <c r="R8" s="16" t="n">
-        <f aca="false">P8*D7</f>
-        <v>1013.5761589404</v>
-      </c>
-      <c r="W8" s="22" t="n">
-        <f aca="false">P8*W10</f>
-        <v>506.7880794702</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
-      <c r="C9" s="0" t="s">
+      <c r="P8">
+        <f>(E14*D29)+J22+J23+J24+J25</f>
+        <v>20.271523178807954</v>
+      </c>
+      <c r="R8" s="17">
+        <f>P8*D7</f>
+        <v>1013.5761589403977</v>
+      </c>
+      <c r="W8" s="22">
+        <f>P8*W10</f>
+        <v>506.78807947019885</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="0" t="n">
-        <f aca="false">(E15*D29)+J22+J23+J24+J25</f>
-        <v>124.973509933775</v>
-      </c>
-      <c r="R9" s="16" t="n">
-        <f aca="false">P9*D7</f>
-        <v>6248.67549668874</v>
-      </c>
-      <c r="W9" s="22" t="n">
-        <f aca="false">P9*W10</f>
-        <v>3124.33774834437</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="U10" s="0" t="s">
+      <c r="P9">
+        <f>(E15*D29)+J22+J23+J24+J25</f>
+        <v>124.97350993377484</v>
+      </c>
+      <c r="R9" s="17">
+        <f>P9*D7</f>
+        <v>6248.675496688742</v>
+      </c>
+      <c r="W9" s="22">
+        <f>P9*W10</f>
+        <v>3124.337748344371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
         <v>114</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="S11" t="s">
         <v>99</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="T11" t="s">
         <v>72</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="W11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
-      <c r="M12" s="0" t="s">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
         <v>103</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="16" t="n">
-        <f aca="false">$P$8*G19</f>
-        <v>6.89231788079471</v>
-      </c>
-      <c r="S12" s="16" t="n">
-        <f aca="false">$P$7*G19</f>
+      <c r="R12" s="17">
+        <f t="shared" ref="R12:R22" si="0">$P$8*G19</f>
+        <v>6.892317880794705</v>
+      </c>
+      <c r="S12" s="17">
+        <f t="shared" ref="S12:S22" si="1">$P$7*G19</f>
         <v>21.76</v>
       </c>
-      <c r="T12" s="16" t="n">
-        <f aca="false">$P$9*G19</f>
-        <v>42.4909933774835</v>
-      </c>
-      <c r="W12" s="16" t="inlineStr">
-        <f aca="false">$W$7*G19</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
-      <c r="C13" s="0" t="s">
+      <c r="T12" s="17">
+        <f t="shared" ref="T12:T22" si="2">$P$9*G19</f>
+        <v>42.490993377483449</v>
+      </c>
+      <c r="W12" s="17">
+        <f t="shared" ref="W12:W22" si="3">$W$7*G19</f>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>98</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="16" t="n">
-        <f aca="false">$P$8*G20</f>
-        <v>5.87874172185431</v>
-      </c>
-      <c r="S13" s="16" t="n">
-        <f aca="false">$P$7*G20</f>
-        <v>18.56</v>
-      </c>
-      <c r="T13" s="16" t="n">
-        <f aca="false">$P$9*G20</f>
-        <v>36.2423178807947</v>
-      </c>
-      <c r="W13" s="16" t="inlineStr">
-        <f aca="false">$W$7*G20</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
-      <c r="C14" s="0" t="s">
+      <c r="R13" s="17">
+        <f t="shared" si="0"/>
+        <v>5.8787417218543059</v>
+      </c>
+      <c r="S13" s="17">
+        <f t="shared" si="1"/>
+        <v>18.559999999999999</v>
+      </c>
+      <c r="T13" s="17">
+        <f t="shared" si="2"/>
+        <v>36.242317880794701</v>
+      </c>
+      <c r="W13" s="17">
+        <f t="shared" si="3"/>
+        <v>463.99999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>80</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">D14/D16</f>
-        <v>0.529801324503311</v>
+      <c r="E14">
+        <f>D14/D16</f>
+        <v>0.5298013245033113</v>
       </c>
       <c r="O14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="16" t="n">
-        <f aca="false">$P$8*G21</f>
-        <v>1.82443708609272</v>
-      </c>
-      <c r="S14" s="16" t="n">
-        <f aca="false">$P$7*G21</f>
+      <c r="R14" s="17">
+        <f t="shared" si="0"/>
+        <v>1.8244370860927157</v>
+      </c>
+      <c r="S14" s="17">
+        <f t="shared" si="1"/>
         <v>5.76</v>
       </c>
-      <c r="T14" s="16" t="n">
-        <f aca="false">$P$9*G21</f>
-        <v>11.2476158940397</v>
-      </c>
-      <c r="W14" s="16" t="inlineStr">
-        <f aca="false">$W$7*G21</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
-      <c r="C15" s="0" t="s">
+      <c r="T14" s="17">
+        <f t="shared" si="2"/>
+        <v>11.247615894039734</v>
+      </c>
+      <c r="W14" s="17">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>250</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">D15/D16</f>
-        <v>1.65562913907285</v>
+      <c r="E15">
+        <f>D15/D16</f>
+        <v>1.6556291390728477</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="16" t="n">
-        <f aca="false">$P$8*G22</f>
-        <v>1.41900662251656</v>
-      </c>
-      <c r="S15" s="16" t="n">
-        <f aca="false">$P$7*G22</f>
-        <v>4.48</v>
-      </c>
-      <c r="T15" s="16" t="n">
-        <f aca="false">$P$9*G22</f>
+      <c r="R15" s="17">
+        <f t="shared" si="0"/>
+        <v>1.419006622516557</v>
+      </c>
+      <c r="S15" s="17">
+        <f t="shared" si="1"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T15" s="17">
+        <f t="shared" si="2"/>
         <v>8.74814569536424</v>
       </c>
-      <c r="W15" s="16" t="inlineStr">
-        <f aca="false">$W$7*G22</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
-      <c r="C16" s="0" t="s">
+      <c r="W15" s="17">
+        <f t="shared" si="3"/>
+        <v>112.00000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>151</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="16" t="n">
-        <f aca="false">$P$8*G23</f>
-        <v>1.0135761589404</v>
-      </c>
-      <c r="S16" s="16" t="n">
-        <f aca="false">$P$7*G23</f>
+      <c r="R16" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0135761589403978</v>
+      </c>
+      <c r="S16" s="17">
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="T16" s="16" t="n">
-        <f aca="false">$P$9*G23</f>
-        <v>6.24867549668874</v>
-      </c>
-      <c r="W16" s="16" t="inlineStr">
-        <f aca="false">$W$7*G23</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
+      <c r="T16" s="17">
+        <f t="shared" si="2"/>
+        <v>6.2486754966887421</v>
+      </c>
+      <c r="W16" s="17">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="O17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="16" t="n">
-        <f aca="false">$P$8*G24</f>
-        <v>1.0135761589404</v>
-      </c>
-      <c r="S17" s="16" t="n">
-        <f aca="false">$P$7*G24</f>
+      <c r="R17" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0135761589403978</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="T17" s="16" t="n">
-        <f aca="false">$P$9*G24</f>
-        <v>6.24867549668874</v>
-      </c>
-      <c r="W17" s="16" t="inlineStr">
-        <f aca="false">$W$7*G24</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
-      <c r="C18" s="18" t="s">
+      <c r="T17" s="17">
+        <f t="shared" si="2"/>
+        <v>6.2486754966887421</v>
+      </c>
+      <c r="W17" s="17">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="1"/>
       <c r="O18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="16" t="n">
-        <f aca="false">$P$8*G25</f>
-        <v>0.810860927152318</v>
-      </c>
-      <c r="S18" s="16" t="n">
-        <f aca="false">$P$7*G25</f>
+      <c r="R18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.81086092715231817</v>
+      </c>
+      <c r="S18" s="17">
+        <f t="shared" si="1"/>
         <v>2.56</v>
       </c>
-      <c r="T18" s="16" t="n">
-        <f aca="false">$P$9*G25</f>
-        <v>4.99894039735099</v>
-      </c>
-      <c r="W18" s="16" t="inlineStr">
-        <f aca="false">$W$7*G25</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
-      <c r="C19" s="0" t="s">
+      <c r="T18" s="17">
+        <f t="shared" si="2"/>
+        <v>4.9989403973509932</v>
+      </c>
+      <c r="W18" s="17">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>217</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="20" t="n">
+      <c r="G19" s="20">
         <v>0.34</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="19" t="n">
+      <c r="J19" s="19">
         <v>12</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="16" t="n">
-        <f aca="false">$P$8*G26</f>
-        <v>0.810860927152318</v>
-      </c>
-      <c r="S19" s="16" t="n">
-        <f aca="false">$P$7*G26</f>
+      <c r="R19" s="17">
+        <f t="shared" si="0"/>
+        <v>0.81086092715231817</v>
+      </c>
+      <c r="S19" s="17">
+        <f t="shared" si="1"/>
         <v>2.56</v>
       </c>
-      <c r="T19" s="16" t="n">
-        <f aca="false">$P$9*G26</f>
-        <v>4.99894039735099</v>
-      </c>
-      <c r="W19" s="16" t="inlineStr">
-        <f aca="false">$W$7*G26</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
-      <c r="C20" s="0" t="s">
+      <c r="T19" s="17">
+        <f t="shared" si="2"/>
+        <v>4.9989403973509932</v>
+      </c>
+      <c r="W19" s="17">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>214</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="20" t="n">
-        <v>0.29</v>
+      <c r="G20" s="20">
+        <v>0.28999999999999998</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="19" t="n">
+      <c r="J20" s="19">
         <v>8</v>
       </c>
       <c r="O20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="16" t="n">
-        <f aca="false">$P$8*G27</f>
-        <v>0.405430463576159</v>
-      </c>
-      <c r="S20" s="16" t="n">
-        <f aca="false">$P$7*G27</f>
+      <c r="R20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.40543046357615908</v>
+      </c>
+      <c r="S20" s="17">
+        <f t="shared" si="1"/>
         <v>1.28</v>
       </c>
-      <c r="T20" s="16" t="n">
-        <f aca="false">$P$9*G27</f>
-        <v>2.4994701986755</v>
-      </c>
-      <c r="W20" s="16" t="inlineStr">
-        <f aca="false">$W$7*G27</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
-      <c r="C21" s="0" t="s">
+      <c r="T20" s="17">
+        <f t="shared" si="2"/>
+        <v>2.4994701986754966</v>
+      </c>
+      <c r="W20" s="17">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>201</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="20" t="n">
+      <c r="G21" s="20">
         <v>0.09</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="19" t="n">
+      <c r="J21" s="19">
         <v>6</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="16" t="n">
-        <f aca="false">$P$8*G28</f>
-        <v>0.202715231788079</v>
-      </c>
-      <c r="S21" s="16" t="n">
-        <f aca="false">$P$7*G28</f>
+      <c r="R21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.20271523178807954</v>
+      </c>
+      <c r="S21" s="17">
+        <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
-      <c r="T21" s="16" t="n">
-        <f aca="false">$P$9*G28</f>
-        <v>1.24973509933775</v>
-      </c>
-      <c r="W21" s="16" t="inlineStr">
-        <f aca="false">$W$7*G28</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
-      <c r="C22" s="0" t="s">
+      <c r="T21" s="17">
+        <f t="shared" si="2"/>
+        <v>1.2497350993377483</v>
+      </c>
+      <c r="W21" s="17">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>161</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="20" t="n">
-        <v>0.07</v>
+      <c r="G22" s="20">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="19" t="n">
+      <c r="J22" s="19">
         <v>-4</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="16" t="n">
-        <f aca="false">$P$8*G29</f>
+      <c r="R22" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="16" t="n">
-        <f aca="false">$P$7*G29</f>
+      <c r="S22" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="16" t="n">
-        <f aca="false">$P$9*G29</f>
+      <c r="T22" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W22" s="16" t="inlineStr">
-        <f aca="false">$W$7*G29</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="C23" s="0" t="s">
+      <c r="W22" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>141</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="20" t="n">
+      <c r="G23" s="20">
         <v>0.05</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J23" s="19">
         <v>-5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="C24" s="0" t="s">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>134</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="20" t="n">
+      <c r="G24" s="20">
         <v>0.05</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="19" t="n">
+      <c r="J24" s="19">
         <v>-9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="C25" s="0" t="s">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>126</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="20" t="n">
+      <c r="G25" s="20">
         <v>0.04</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="19" t="n">
+      <c r="J25" s="19">
         <v>-11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>120</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="20" t="n">
+      <c r="G26" s="20">
         <v>0.04</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>119</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="20" t="n">
+      <c r="G27" s="20">
         <v>0.02</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>114</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="20" t="n">
+      <c r="G28" s="20">
         <v>0.01</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>93</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="20" t="n">
+      <c r="G29" s="20">
         <v>0</v>
       </c>
     </row>
@@ -5832,12 +6524,7 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="I18:J18"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/documentation/DatenAnalyse_Datenverlust.xlsx
+++ b/documentation/DatenAnalyse_Datenverlust.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="221" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="221" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Kostenverteilung" sheetId="3" r:id="rId3"/>
     <sheet name="Test 1" sheetId="4" r:id="rId4"/>
     <sheet name="Test 2" sheetId="5" r:id="rId5"/>
     <sheet name="Test 3" sheetId="6" r:id="rId6"/>
@@ -496,12 +496,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -524,6 +518,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1046,11 +1046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87945728"/>
-        <c:axId val="89244800"/>
+        <c:axId val="101899584"/>
+        <c:axId val="149782528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87945728"/>
+        <c:axId val="101899584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,12 +1093,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89244800"/>
+        <c:crossAx val="149782528"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89244800"/>
+        <c:axId val="149782528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87945728"/>
+        <c:crossAx val="101899584"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1390,7 +1390,7 @@
             <c:numRef>
               <c:f>'[1]Test 1'!$S$19:$S$29</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00" €"</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>69.02000000000001</c:v>
@@ -1546,9 +1546,9 @@
             <c:numRef>
               <c:f>'[1]Test 1'!$Q$9:$R$9</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00" €"</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1603,9 +1603,9 @@
             <c:numRef>
               <c:f>'[1]Test 1'!$Q$7:$R$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00" €"</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1660,9 +1660,9 @@
             <c:numRef>
               <c:f>'[1]Test 1'!$Q$8:$R$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00" €"</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1681,11 +1681,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106510528"/>
-        <c:axId val="171463744"/>
+        <c:axId val="149785984"/>
+        <c:axId val="149786560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106510528"/>
+        <c:axId val="149785984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,12 +1695,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171463744"/>
+        <c:crossAx val="149786560"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171463744"/>
+        <c:axId val="149786560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,7 +1720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106510528"/>
+        <c:crossAx val="149785984"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2673,7 +2673,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
@@ -2690,7 +2690,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
@@ -2704,7 +2704,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
@@ -2718,7 +2718,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
@@ -2735,7 +2735,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
@@ -2746,7 +2746,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
@@ -2788,7 +2788,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
@@ -2802,7 +2802,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F12" t="s">
@@ -2816,7 +2816,7 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
@@ -2830,7 +2830,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
@@ -2844,7 +2844,7 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
@@ -2858,7 +2858,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
@@ -2883,10 +2883,10 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H18" t="s">
@@ -2912,7 +2912,7 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
@@ -2976,283 +2976,283 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>217</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f t="shared" ref="E6:E16" si="0">(D6/$D$4)-1</f>
         <v>0.4370860927152318</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>12</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <f t="shared" ref="J6:J12" si="1">($I$4+I6)/$I$4-1</f>
         <v>7.9470198675496651E-2</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="7">
         <v>0.34</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>214</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>0.41721854304635753</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <v>8</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>5.2980132450331174E-2</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O7" s="8"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>201</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>0.33112582781456945</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>6</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>3.9735099337748325E-2</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>0.09</v>
       </c>
-      <c r="O8" s="8"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>161</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>6.6225165562913801E-2</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <v>-4</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>-2.6490066225165587E-2</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O9" s="8"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>141</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>-6.6225165562913912E-2</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <v>-5</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
         <v>-3.3112582781456901E-2</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <v>0.05</v>
       </c>
-      <c r="O10" s="8"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>134</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>-0.11258278145695366</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <v>-9</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>-5.9602649006622488E-2</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <v>0.05</v>
       </c>
-      <c r="O11" s="8"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>126</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>-0.16556291390728473</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12">
         <v>-11</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>-7.2847682119205337E-2</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="10">
         <v>0.04</v>
       </c>
-      <c r="O12" s="8"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>120</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>-0.20529801324503316</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="10">
         <v>0.04</v>
       </c>
-      <c r="O13" s="8"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>119</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>-0.21192052980132448</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="10">
         <v>0.02</v>
       </c>
-      <c r="O14" s="8"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>114</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>-0.24503311258278149</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="10">
         <v>0.01</v>
       </c>
-      <c r="O15" s="8"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>93</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>-0.38410596026490063</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="13">
         <v>0</v>
       </c>
-      <c r="O16" s="8"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -3260,26 +3260,26 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>250</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>151</v>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4285,19 +4285,19 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="21"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="Q6">
         <v>0</v>
       </c>
@@ -4326,7 +4326,7 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="15">
         <f>P7*D7</f>
         <v>103936</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="15">
         <f>P8*D7</f>
         <v>55546.913907284776</v>
       </c>
@@ -4370,29 +4370,29 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="15">
         <f>P9*D7</f>
         <v>171408.10596026489</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="R13" s="17"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
@@ -4405,9 +4405,9 @@
         <f>D14/D16</f>
         <v>0.5298013245033113</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -4430,18 +4430,18 @@
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="D18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="22"/>
+      <c r="I18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="22"/>
       <c r="R18" t="s">
         <v>71</v>
       </c>
@@ -4459,33 +4459,33 @@
       <c r="D19">
         <v>217</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="18">
         <v>0.34</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <v>12</v>
       </c>
       <c r="M19" t="s">
         <v>103</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="15">
         <f t="shared" ref="R19:R29" si="0">$P$8*G19</f>
         <v>36.886622516556301</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="15">
         <f t="shared" ref="S19:S29" si="1">$P$7*G19</f>
         <v>69.02000000000001</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="15">
         <f t="shared" ref="T19:T29" si="2">$P$9*G19</f>
         <v>113.82569536423841</v>
       </c>
@@ -4497,30 +4497,30 @@
       <c r="D20">
         <v>214</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="17">
         <v>8</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="15">
         <f t="shared" si="0"/>
         <v>31.462119205298016</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="15">
         <f t="shared" si="1"/>
         <v>58.87</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="15">
         <f t="shared" si="2"/>
         <v>97.086622516556275</v>
       </c>
@@ -4532,30 +4532,30 @@
       <c r="D21">
         <v>201</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="18">
         <v>0.09</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="17">
         <v>6</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="15">
         <f t="shared" si="0"/>
         <v>9.7641059602649012</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="15">
         <f t="shared" si="1"/>
         <v>18.27</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="15">
         <f t="shared" si="2"/>
         <v>30.130331125827812</v>
       </c>
@@ -4567,30 +4567,30 @@
       <c r="D22">
         <v>161</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="17">
         <v>-4</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="15">
         <f t="shared" si="0"/>
         <v>7.5943046357615911</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="15">
         <f t="shared" si="1"/>
         <v>14.21</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="15">
         <f t="shared" si="2"/>
         <v>23.434701986754966</v>
       </c>
@@ -4602,30 +4602,30 @@
       <c r="D23">
         <v>141</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="18">
         <v>0.05</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="17">
         <v>-5</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="15">
         <f t="shared" si="0"/>
         <v>5.4245033112582792</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="15">
         <f t="shared" si="1"/>
         <v>10.15</v>
       </c>
-      <c r="T23" s="17">
+      <c r="T23" s="15">
         <f t="shared" si="2"/>
         <v>16.73907284768212</v>
       </c>
@@ -4637,30 +4637,30 @@
       <c r="D24">
         <v>134</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="18">
         <v>0.05</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="17">
         <v>-9</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="15">
         <f t="shared" si="0"/>
         <v>5.4245033112582792</v>
       </c>
-      <c r="S24" s="17">
+      <c r="S24" s="15">
         <f t="shared" si="1"/>
         <v>10.15</v>
       </c>
-      <c r="T24" s="17">
+      <c r="T24" s="15">
         <f t="shared" si="2"/>
         <v>16.73907284768212</v>
       </c>
@@ -4672,30 +4672,30 @@
       <c r="D25">
         <v>126</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="18">
         <v>0.04</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="17">
         <v>-11</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="15">
         <f t="shared" si="0"/>
         <v>4.3396026490066228</v>
       </c>
-      <c r="S25" s="17">
+      <c r="S25" s="15">
         <f t="shared" si="1"/>
         <v>8.120000000000001</v>
       </c>
-      <c r="T25" s="17">
+      <c r="T25" s="15">
         <f t="shared" si="2"/>
         <v>13.391258278145695</v>
       </c>
@@ -4707,24 +4707,24 @@
       <c r="D26">
         <v>120</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="18">
         <v>0.04</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="15">
         <f t="shared" si="0"/>
         <v>4.3396026490066228</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="15">
         <f t="shared" si="1"/>
         <v>8.120000000000001</v>
       </c>
-      <c r="T26" s="17">
+      <c r="T26" s="15">
         <f t="shared" si="2"/>
         <v>13.391258278145695</v>
       </c>
@@ -4736,24 +4736,24 @@
       <c r="D27">
         <v>119</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <v>0.02</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="15">
         <f t="shared" si="0"/>
         <v>2.1698013245033114</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="15">
         <f t="shared" si="1"/>
         <v>4.0600000000000005</v>
       </c>
-      <c r="T27" s="17">
+      <c r="T27" s="15">
         <f t="shared" si="2"/>
         <v>6.6956291390728477</v>
       </c>
@@ -4765,24 +4765,24 @@
       <c r="D28">
         <v>114</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="18">
         <v>0.01</v>
       </c>
-      <c r="O28" s="19" t="s">
+      <c r="O28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="15">
         <f t="shared" si="0"/>
         <v>1.0849006622516557</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="15">
         <f t="shared" si="1"/>
         <v>2.0300000000000002</v>
       </c>
-      <c r="T28" s="17">
+      <c r="T28" s="15">
         <f t="shared" si="2"/>
         <v>3.3478145695364239</v>
       </c>
@@ -4794,24 +4794,24 @@
       <c r="D29">
         <v>93</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>0</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T29" s="17">
+      <c r="T29" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4856,15 +4856,15 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="R6" t="s">
         <v>105</v>
       </c>
@@ -4873,7 +4873,7 @@
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>5000000</v>
       </c>
       <c r="M7" t="s">
@@ -4886,7 +4886,7 @@
         <f>D26+J20+J22+J24</f>
         <v>115</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="15">
         <f>P7*D7</f>
         <v>575000000</v>
       </c>
@@ -4905,7 +4905,7 @@
         <f>(E14*D26)+J20+J22+J24</f>
         <v>58.576158940397363</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="15">
         <f>P8*D7</f>
         <v>292880794.70198679</v>
       </c>
@@ -4924,13 +4924,13 @@
         <f>(E15*D26)+J20+J22+J24</f>
         <v>193.67549668874173</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="15">
         <f>P9*D7</f>
         <v>968377483.44370866</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>97</v>
       </c>
       <c r="R11" t="s">
@@ -4947,18 +4947,18 @@
       <c r="M12" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="15">
         <f t="shared" ref="R12:R22" si="0">$P$8*G19</f>
         <v>19.915894039735104</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="15">
         <f t="shared" ref="S12:S22" si="1">$P$7*G19</f>
         <v>39.1</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="15">
         <f t="shared" ref="T12:T22" si="2">$P$9*G19</f>
         <v>65.849668874172195</v>
       </c>
@@ -4967,18 +4967,18 @@
       <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="15">
         <f t="shared" si="0"/>
         <v>16.987086092715234</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="15">
         <f t="shared" si="1"/>
         <v>33.349999999999994</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="15">
         <f t="shared" si="2"/>
         <v>56.1658940397351</v>
       </c>
@@ -4994,18 +4994,18 @@
         <f>D14/D16</f>
         <v>0.5298013245033113</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="15">
         <f t="shared" si="0"/>
         <v>5.2718543046357622</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="15">
         <f t="shared" si="1"/>
         <v>10.35</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="15">
         <f t="shared" si="2"/>
         <v>17.430794701986756</v>
       </c>
@@ -5021,18 +5021,18 @@
         <f>D15/D16</f>
         <v>1.6556291390728477</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="15">
         <f t="shared" si="0"/>
         <v>4.1003311258278154</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="15">
         <f t="shared" si="1"/>
         <v>8.0500000000000007</v>
       </c>
-      <c r="T15" s="17">
+      <c r="T15" s="15">
         <f t="shared" si="2"/>
         <v>13.557284768211922</v>
       </c>
@@ -5044,64 +5044,64 @@
       <c r="D16">
         <v>151</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="15">
         <f t="shared" si="0"/>
         <v>2.9288079470198682</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="15">
         <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="15">
         <f t="shared" si="2"/>
         <v>9.683774834437088</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="15">
         <f t="shared" si="0"/>
         <v>2.9288079470198682</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="15">
         <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="15">
         <f t="shared" si="2"/>
         <v>9.683774834437088</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="D18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="22"/>
+      <c r="I18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="O18" s="19" t="s">
+      <c r="J18" s="22"/>
+      <c r="O18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="15">
         <f t="shared" si="0"/>
         <v>2.3430463576158944</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="15">
         <f t="shared" si="1"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T18" s="15">
         <f t="shared" si="2"/>
         <v>7.7470198675496693</v>
       </c>
@@ -5113,30 +5113,30 @@
       <c r="D19">
         <v>217</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="18">
         <v>0.34</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <v>12</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="15">
         <f t="shared" si="0"/>
         <v>2.3430463576158944</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="15">
         <f t="shared" si="1"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="15">
         <f t="shared" si="2"/>
         <v>7.7470198675496693</v>
       </c>
@@ -5148,30 +5148,30 @@
       <c r="D20">
         <v>214</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="17">
         <v>8</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="15">
         <f t="shared" si="0"/>
         <v>1.1715231788079472</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="15">
         <f t="shared" si="1"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="15">
         <f t="shared" si="2"/>
         <v>3.8735099337748347</v>
       </c>
@@ -5183,30 +5183,30 @@
       <c r="D21">
         <v>201</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="18">
         <v>0.09</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="17">
         <v>6</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="15">
         <f t="shared" si="0"/>
         <v>0.5857615894039736</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="15">
         <f t="shared" si="1"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="15">
         <f t="shared" si="2"/>
         <v>1.9367549668874173</v>
       </c>
@@ -5218,30 +5218,30 @@
       <c r="D22">
         <v>161</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="17">
         <v>-4</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5253,16 +5253,16 @@
       <c r="D23">
         <v>141</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="18">
         <v>0.05</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="17">
         <v>-5</v>
       </c>
     </row>
@@ -5273,16 +5273,16 @@
       <c r="D24">
         <v>134</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="18">
         <v>0.05</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="17">
         <v>-9</v>
       </c>
     </row>
@@ -5293,16 +5293,16 @@
       <c r="D25">
         <v>126</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="18">
         <v>0.04</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="17">
         <v>-11</v>
       </c>
     </row>
@@ -5313,10 +5313,10 @@
       <c r="D26">
         <v>120</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="18">
         <v>0.04</v>
       </c>
     </row>
@@ -5327,10 +5327,10 @@
       <c r="D27">
         <v>119</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <v>0.02</v>
       </c>
     </row>
@@ -5341,10 +5341,10 @@
       <c r="D28">
         <v>114</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="18">
         <v>0.01</v>
       </c>
     </row>
@@ -5355,10 +5355,10 @@
       <c r="D29">
         <v>93</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5400,15 +5400,15 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="R6" t="s">
         <v>105</v>
       </c>
@@ -5417,7 +5417,7 @@
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>2000000000</v>
       </c>
       <c r="M7" t="s">
@@ -5430,7 +5430,7 @@
         <f>D19+J19+J20+J21</f>
         <v>243</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="15">
         <f>P7*D7</f>
         <v>486000000000</v>
       </c>
@@ -5449,7 +5449,7 @@
         <f>(E14*D19)+J19+J20+J21</f>
         <v>140.96688741721857</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="15">
         <f>P8*D7</f>
         <v>281933774834.43713</v>
       </c>
@@ -5468,13 +5468,13 @@
         <f>(E15*D19)+J19+J20+J21</f>
         <v>385.27152317880797</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="15">
         <f>P9*D7</f>
         <v>770543046357.61597</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>97</v>
       </c>
       <c r="R11" t="s">
@@ -5491,18 +5491,18 @@
       <c r="M12" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="15">
         <f t="shared" ref="R12:R22" si="0">$P$8*G19</f>
         <v>47.928741721854315</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="15">
         <f t="shared" ref="S12:S22" si="1">$P$7*G19</f>
         <v>82.62</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="15">
         <f t="shared" ref="T12:T22" si="2">$P$9*G19</f>
         <v>130.99231788079473</v>
       </c>
@@ -5511,18 +5511,18 @@
       <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="15">
         <f t="shared" si="0"/>
         <v>40.880397350993384</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="15">
         <f t="shared" si="1"/>
         <v>70.47</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="15">
         <f t="shared" si="2"/>
         <v>111.72874172185431</v>
       </c>
@@ -5538,18 +5538,18 @@
         <f>D14/D16</f>
         <v>0.5298013245033113</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="15">
         <f t="shared" si="0"/>
         <v>12.687019867549671</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="15">
         <f t="shared" si="1"/>
         <v>21.869999999999997</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="15">
         <f t="shared" si="2"/>
         <v>34.674437086092716</v>
       </c>
@@ -5565,18 +5565,18 @@
         <f>D15/D16</f>
         <v>1.6556291390728477</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="15">
         <f t="shared" si="0"/>
         <v>9.8676821192053001</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="15">
         <f t="shared" si="1"/>
         <v>17.010000000000002</v>
       </c>
-      <c r="T15" s="17">
+      <c r="T15" s="15">
         <f t="shared" si="2"/>
         <v>26.969006622516559</v>
       </c>
@@ -5588,64 +5588,64 @@
       <c r="D16">
         <v>151</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="15">
         <f t="shared" si="0"/>
         <v>7.0483443708609288</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="15">
         <f t="shared" si="1"/>
         <v>12.15</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="15">
         <f t="shared" si="2"/>
         <v>19.263576158940399</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="15">
         <f t="shared" si="0"/>
         <v>7.0483443708609288</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="15">
         <f t="shared" si="1"/>
         <v>12.15</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="15">
         <f t="shared" si="2"/>
         <v>19.263576158940399</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="D18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="22"/>
+      <c r="I18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="O18" s="19" t="s">
+      <c r="J18" s="22"/>
+      <c r="O18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="15">
         <f t="shared" si="0"/>
         <v>5.6386754966887427</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="15">
         <f t="shared" si="1"/>
         <v>9.7200000000000006</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T18" s="15">
         <f t="shared" si="2"/>
         <v>15.410860927152319</v>
       </c>
@@ -5657,30 +5657,30 @@
       <c r="D19">
         <v>217</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="18">
         <v>0.34</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <v>12</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="15">
         <f t="shared" si="0"/>
         <v>5.6386754966887427</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="15">
         <f t="shared" si="1"/>
         <v>9.7200000000000006</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="15">
         <f t="shared" si="2"/>
         <v>15.410860927152319</v>
       </c>
@@ -5692,30 +5692,30 @@
       <c r="D20">
         <v>214</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="17">
         <v>8</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="15">
         <f t="shared" si="0"/>
         <v>2.8193377483443713</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="15">
         <f t="shared" si="1"/>
         <v>4.8600000000000003</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="15">
         <f t="shared" si="2"/>
         <v>7.7054304635761595</v>
       </c>
@@ -5727,30 +5727,30 @@
       <c r="D21">
         <v>201</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="18">
         <v>0.09</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="17">
         <v>6</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="15">
         <f t="shared" si="0"/>
         <v>1.4096688741721857</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="15">
         <f t="shared" si="1"/>
         <v>2.4300000000000002</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="15">
         <f t="shared" si="2"/>
         <v>3.8527152317880797</v>
       </c>
@@ -5762,30 +5762,30 @@
       <c r="D22">
         <v>161</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="17">
         <v>-4</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5797,16 +5797,16 @@
       <c r="D23">
         <v>141</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="18">
         <v>0.05</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="17">
         <v>-5</v>
       </c>
     </row>
@@ -5817,16 +5817,16 @@
       <c r="D24">
         <v>134</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="18">
         <v>0.05</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="17">
         <v>-9</v>
       </c>
     </row>
@@ -5837,16 +5837,16 @@
       <c r="D25">
         <v>126</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="18">
         <v>0.04</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="17">
         <v>-11</v>
       </c>
     </row>
@@ -5857,10 +5857,10 @@
       <c r="D26">
         <v>120</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="18">
         <v>0.04</v>
       </c>
     </row>
@@ -5871,10 +5871,10 @@
       <c r="D27">
         <v>119</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <v>0.02</v>
       </c>
     </row>
@@ -5885,10 +5885,10 @@
       <c r="D28">
         <v>114</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="18">
         <v>0.01</v>
       </c>
     </row>
@@ -5899,10 +5899,10 @@
       <c r="D29">
         <v>93</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5942,15 +5942,15 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="R6" t="s">
         <v>105</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>50</v>
       </c>
       <c r="M7" t="s">
@@ -5975,11 +5975,11 @@
         <f>D29+J22+J23+J24+J25</f>
         <v>64</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="15">
         <f>P7*D7</f>
         <v>3200</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="20">
         <f>P7*W10</f>
         <v>1600</v>
       </c>
@@ -5998,11 +5998,11 @@
         <f>(E14*D29)+J22+J23+J24+J25</f>
         <v>20.271523178807954</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="15">
         <f>P8*D7</f>
         <v>1013.5761589403977</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="20">
         <f>P8*W10</f>
         <v>506.78807947019885</v>
       </c>
@@ -6021,11 +6021,11 @@
         <f>(E15*D29)+J22+J23+J24+J25</f>
         <v>124.97350993377484</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="15">
         <f>P9*D7</f>
         <v>6248.675496688742</v>
       </c>
-      <c r="W9" s="22">
+      <c r="W9" s="20">
         <f>P9*W10</f>
         <v>3124.337748344371</v>
       </c>
@@ -6039,7 +6039,7 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>97</v>
       </c>
       <c r="R11" t="s">
@@ -6059,22 +6059,22 @@
       <c r="M12" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="15">
         <f t="shared" ref="R12:R22" si="0">$P$8*G19</f>
         <v>6.892317880794705</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="15">
         <f t="shared" ref="S12:S22" si="1">$P$7*G19</f>
         <v>21.76</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="15">
         <f t="shared" ref="T12:T22" si="2">$P$9*G19</f>
         <v>42.490993377483449</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="15">
         <f t="shared" ref="W12:W22" si="3">$W$7*G19</f>
         <v>544</v>
       </c>
@@ -6083,22 +6083,22 @@
       <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="15">
         <f t="shared" si="0"/>
         <v>5.8787417218543059</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="15">
         <f t="shared" si="1"/>
         <v>18.559999999999999</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="15">
         <f t="shared" si="2"/>
         <v>36.242317880794701</v>
       </c>
-      <c r="W13" s="17">
+      <c r="W13" s="15">
         <f t="shared" si="3"/>
         <v>463.99999999999994</v>
       </c>
@@ -6114,22 +6114,22 @@
         <f>D14/D16</f>
         <v>0.5298013245033113</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="15">
         <f t="shared" si="0"/>
         <v>1.8244370860927157</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="15">
         <f t="shared" si="1"/>
         <v>5.76</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="15">
         <f t="shared" si="2"/>
         <v>11.247615894039734</v>
       </c>
-      <c r="W14" s="17">
+      <c r="W14" s="15">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
@@ -6145,22 +6145,22 @@
         <f>D15/D16</f>
         <v>1.6556291390728477</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="15">
         <f t="shared" si="0"/>
         <v>1.419006622516557</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="15">
         <f t="shared" si="1"/>
         <v>4.4800000000000004</v>
       </c>
-      <c r="T15" s="17">
+      <c r="T15" s="15">
         <f t="shared" si="2"/>
         <v>8.74814569536424</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="15">
         <f t="shared" si="3"/>
         <v>112.00000000000001</v>
       </c>
@@ -6172,76 +6172,76 @@
       <c r="D16">
         <v>151</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="15">
         <f t="shared" si="0"/>
         <v>1.0135761589403978</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="15">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="15">
         <f t="shared" si="2"/>
         <v>6.2486754966887421</v>
       </c>
-      <c r="W16" s="17">
+      <c r="W16" s="15">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="15">
         <f t="shared" si="0"/>
         <v>1.0135761589403978</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="15">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="15">
         <f t="shared" si="2"/>
         <v>6.2486754966887421</v>
       </c>
-      <c r="W17" s="17">
+      <c r="W17" s="15">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="D18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="22"/>
+      <c r="I18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="O18" s="19" t="s">
+      <c r="J18" s="22"/>
+      <c r="O18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="15">
         <f t="shared" si="0"/>
         <v>0.81086092715231817</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="15">
         <f t="shared" si="1"/>
         <v>2.56</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T18" s="15">
         <f t="shared" si="2"/>
         <v>4.9989403973509932</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18" s="15">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
@@ -6253,34 +6253,34 @@
       <c r="D19">
         <v>217</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="18">
         <v>0.34</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <v>12</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="15">
         <f t="shared" si="0"/>
         <v>0.81086092715231817</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="15">
         <f t="shared" si="1"/>
         <v>2.56</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="15">
         <f t="shared" si="2"/>
         <v>4.9989403973509932</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="15">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
@@ -6292,34 +6292,34 @@
       <c r="D20">
         <v>214</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="17">
         <v>8</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="15">
         <f t="shared" si="0"/>
         <v>0.40543046357615908</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="15">
         <f t="shared" si="1"/>
         <v>1.28</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="15">
         <f t="shared" si="2"/>
         <v>2.4994701986754966</v>
       </c>
-      <c r="W20" s="17">
+      <c r="W20" s="15">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -6331,34 +6331,34 @@
       <c r="D21">
         <v>201</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="18">
         <v>0.09</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="17">
         <v>6</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="15">
         <f t="shared" si="0"/>
         <v>0.20271523178807954</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="15">
         <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="15">
         <f t="shared" si="2"/>
         <v>1.2497350993377483</v>
       </c>
-      <c r="W21" s="17">
+      <c r="W21" s="15">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -6370,34 +6370,34 @@
       <c r="D22">
         <v>161</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="17">
         <v>-4</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W22" s="17">
+      <c r="W22" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6409,16 +6409,16 @@
       <c r="D23">
         <v>141</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="18">
         <v>0.05</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="17">
         <v>-5</v>
       </c>
     </row>
@@ -6429,16 +6429,16 @@
       <c r="D24">
         <v>134</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="18">
         <v>0.05</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="17">
         <v>-9</v>
       </c>
     </row>
@@ -6449,16 +6449,16 @@
       <c r="D25">
         <v>126</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="18">
         <v>0.04</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="17">
         <v>-11</v>
       </c>
     </row>
@@ -6469,10 +6469,10 @@
       <c r="D26">
         <v>120</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="18">
         <v>0.04</v>
       </c>
     </row>
@@ -6483,10 +6483,10 @@
       <c r="D27">
         <v>119</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <v>0.02</v>
       </c>
     </row>
@@ -6497,10 +6497,10 @@
       <c r="D28">
         <v>114</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="18">
         <v>0.01</v>
       </c>
     </row>
@@ -6511,10 +6511,10 @@
       <c r="D29">
         <v>93</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>0</v>
       </c>
     </row>
